--- a/AI response analysis.xlsx
+++ b/AI response analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEENU\Git\GitHubRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEENU\Git\GitHubRepository\Cell-Biology-Misconceptions-Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA16BBFF-3754-4AC6-80AD-FA5EC83B3FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC03BD2D-A851-4D8B-99DB-C350FEECC64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{CC19697D-DDCA-44B7-A586-36CE1978274E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC19697D-DDCA-44B7-A586-36CE1978274E}"/>
   </bookViews>
   <sheets>
     <sheet name="AI response evaluation " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="158">
   <si>
     <t>AI Model</t>
   </si>
@@ -386,248 +386,6 @@
   </si>
   <si>
     <t>ChatGPT-5</t>
-  </si>
-  <si>
-    <t>Cell Biology Misconceptions Evaluation.</t>
-  </si>
-  <si>
-    <r>
-      <t>Dataset Type:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AI Biological Knowledge Evaluation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cell Biology &amp; Misconceptions</t>
-    </r>
-  </si>
-  <si>
-    <t>Methods / Metadata:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Responses collected between </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15–30 Nov 2025</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Models tested in default settings: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ChatGPT-5, Claude (latest public), Copilot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Responses copied verbatim; scoring done by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Meenu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Accuracy / Clarity / Completeness rating scale:</t>
-  </si>
-  <si>
-    <t>1 = poor, 2 = fair, 3 = good, 4 = very good, 5 = excellent</t>
-  </si>
-  <si>
-    <t>Final Score (0–2):</t>
-  </si>
-  <si>
-    <r>
-      <t>• Accuracy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — factual correctness (no scientific errors)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>• Clarity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — how understandable and well-phrased the answer is</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>• Completeness</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> — whether the response fully addresses the question</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   • Differences in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>length/detail do not affect score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> unless they introduce confusion or misinformation.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">   • Model output length is not a scoring factor.</t>
-  </si>
-  <si>
-    <r>
-      <t>• 2 = fully correct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (accuracy 5, no major omissions)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>• 1 = partially correct</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (accuracy 3–4 OR clarity/completeness issues)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>• 0 = incorrect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (accuracy ≤2 or misleading fact)</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Scoring Rubric: </t>
@@ -927,6 +685,129 @@
       <t xml:space="preserve"> ranked highest— fully correct answers, no errors, and maximum score (2) on every question.</t>
     </r>
   </si>
+  <si>
+    <t>Dataset Information :</t>
+  </si>
+  <si>
+    <t>Category Scoring (1–5 per response)</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Poor — incorrect or unclear</t>
+  </si>
+  <si>
+    <t>Fair — partly correct or vague</t>
+  </si>
+  <si>
+    <t>Good — mostly correct</t>
+  </si>
+  <si>
+    <t>Very Good — correct and clear</t>
+  </si>
+  <si>
+    <t>Excellent — correct, clear, complete</t>
+  </si>
+  <si>
+    <t>Final Correctness Score (0–2)</t>
+  </si>
+  <si>
+    <t>Final Score</t>
+  </si>
+  <si>
+    <t>Fully correct – no major issues</t>
+  </si>
+  <si>
+    <t>Partially correct – minor clarity/completeness issues</t>
+  </si>
+  <si>
+    <t>Incorrect or misleading</t>
+  </si>
+  <si>
+    <r>
+      <t>Dataset Type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AI Biological Knowledge Evaluation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Domain:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cell Biology &amp; Misconceptions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data Collection Period:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> 15–30 Nov 2025.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Models Evaluated:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> ChatGPT-5, Claude (latest public), Copilot.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Evaluation Method:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t> Responses copied verbatim; assessed manually and scored numerically</t>
+    </r>
+  </si>
+  <si>
+    <t>Note: Length of response does not affect scoring unless it causes confusion or misinformation.</t>
+  </si>
+  <si>
+    <t>Cell Biology Misconceptions - AI Model Evaluation</t>
+  </si>
 </sst>
 </file>
 
@@ -935,7 +816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -989,16 +870,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1254,11 +1190,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1353,12 +1304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,11 +1383,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5392,17 +5391,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F3884D-1694-42F8-893E-475AD91816DC}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
     <col min="5" max="5" width="58.5546875" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
@@ -5416,7 +5416,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="18" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
@@ -5424,22 +5424,22 @@
     </row>
     <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="65"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5452,1270 +5452,1383 @@
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
+      <c r="A7" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
     </row>
     <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
+      <c r="A8" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>109</v>
-      </c>
+      <c r="A9" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="68"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>101</v>
-      </c>
+      <c r="A12" s="82"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A13" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+    </row>
+    <row r="14" spans="1:12" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="83"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+    </row>
+    <row r="15" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="70"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73">
+        <v>1</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="70"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="73">
+        <v>2</v>
+      </c>
+      <c r="B17" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73">
+        <v>3</v>
+      </c>
+      <c r="B18" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+    </row>
+    <row r="19" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="73">
+        <v>4</v>
+      </c>
+      <c r="B19" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+    </row>
+    <row r="20" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="73">
+        <v>5</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+    </row>
+    <row r="23" spans="1:13" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="76"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+    </row>
+    <row r="25" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="77">
+        <v>2</v>
+      </c>
+      <c r="B25" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+    </row>
+    <row r="26" spans="1:13" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="79">
+        <v>1</v>
+      </c>
+      <c r="B26" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="70"/>
+      <c r="D26" s="70"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="77">
+        <v>0</v>
+      </c>
+      <c r="B27" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="70"/>
+      <c r="D27" s="70"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="81"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+    </row>
+    <row r="29" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="66"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+    </row>
+    <row r="31" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="62">
+        <v>1</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="6">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6">
+        <v>5</v>
+      </c>
+      <c r="H32" s="6">
+        <v>4</v>
+      </c>
+      <c r="I32" s="6">
+        <v>2</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="62"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="3">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2</v>
+      </c>
+      <c r="J33" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="20" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+      <c r="M33" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="189.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="8">
+        <v>4</v>
+      </c>
+      <c r="G34" s="8">
+        <v>4</v>
+      </c>
+      <c r="H34" s="8">
+        <v>4</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-    </row>
-    <row r="26" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I26" s="4" t="s">
+    <row r="35" spans="1:13" ht="148.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="62">
         <v>2</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="35">
-        <v>1</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="B35" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="6">
-        <v>5</v>
-      </c>
-      <c r="G27" s="6">
-        <v>5</v>
-      </c>
-      <c r="H27" s="6">
+      <c r="E35" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="6">
+        <v>5</v>
+      </c>
+      <c r="G35" s="6">
+        <v>5</v>
+      </c>
+      <c r="H35" s="6">
+        <v>5</v>
+      </c>
+      <c r="I35" s="6">
+        <v>2</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="M35" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="62"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="6">
-        <v>2</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="M27" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="35"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="3">
-        <v>5</v>
-      </c>
-      <c r="G28" s="3">
-        <v>5</v>
-      </c>
-      <c r="H28" s="3">
-        <v>5</v>
-      </c>
-      <c r="I28" s="3">
-        <v>2</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="189.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="8">
-        <v>4</v>
-      </c>
-      <c r="G29" s="8">
-        <v>4</v>
-      </c>
-      <c r="H29" s="8">
-        <v>4</v>
-      </c>
-      <c r="I29" s="8">
-        <v>1</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="148.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="35">
-        <v>2</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="6">
-        <v>5</v>
-      </c>
-      <c r="G30" s="6">
-        <v>5</v>
-      </c>
-      <c r="H30" s="6">
-        <v>5</v>
-      </c>
-      <c r="I30" s="6">
-        <v>2</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="M30" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="20" t="s">
+      <c r="E36" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="3">
-        <v>5</v>
-      </c>
-      <c r="G31" s="3">
-        <v>5</v>
-      </c>
-      <c r="H31" s="3">
-        <v>5</v>
-      </c>
-      <c r="I31" s="3">
-        <v>2</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="8">
-        <v>5</v>
-      </c>
-      <c r="G32" s="8">
-        <v>5</v>
-      </c>
-      <c r="H32" s="8">
-        <v>5</v>
-      </c>
-      <c r="I32" s="8">
-        <v>2</v>
-      </c>
-      <c r="J32" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="35">
-        <v>3</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" s="6">
-        <v>5</v>
-      </c>
-      <c r="G33" s="6">
-        <v>5</v>
-      </c>
-      <c r="H33" s="6">
-        <v>5</v>
-      </c>
-      <c r="I33" s="6">
-        <v>2</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L33" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="M33" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="3">
-        <v>5</v>
-      </c>
-      <c r="G34" s="3">
-        <v>5</v>
-      </c>
-      <c r="H34" s="3">
-        <v>5</v>
-      </c>
-      <c r="I34" s="3">
-        <v>2</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L34" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="M34" s="46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="240.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="35"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="8">
-        <v>5</v>
-      </c>
-      <c r="G35" s="8">
-        <v>5</v>
-      </c>
-      <c r="H35" s="8">
-        <v>5</v>
-      </c>
-      <c r="I35" s="8">
-        <v>2</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L35" s="47" t="s">
-        <v>143</v>
-      </c>
-      <c r="M35" s="47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="127.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="35">
-        <v>4</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="11">
-        <v>5</v>
-      </c>
-      <c r="G36" s="11">
-        <v>5</v>
-      </c>
-      <c r="H36" s="11">
+      <c r="F36" s="3">
+        <v>5</v>
+      </c>
+      <c r="G36" s="3">
+        <v>5</v>
+      </c>
+      <c r="H36" s="3">
         <v>5</v>
       </c>
       <c r="I36" s="3">
         <v>2</v>
       </c>
-      <c r="J36" s="31" t="s">
+      <c r="J36" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="62"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="8">
+        <v>5</v>
+      </c>
+      <c r="G37" s="8">
+        <v>5</v>
+      </c>
+      <c r="H37" s="8">
+        <v>5</v>
+      </c>
+      <c r="I37" s="8">
+        <v>2</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="62">
+        <v>3</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="6">
+        <v>5</v>
+      </c>
+      <c r="G38" s="6">
+        <v>5</v>
+      </c>
+      <c r="H38" s="6">
+        <v>5</v>
+      </c>
+      <c r="I38" s="6">
+        <v>2</v>
+      </c>
+      <c r="J38" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="K36" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L36" s="27" t="s">
+      <c r="K38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="M38" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="M36" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="2" t="s">
+    </row>
+    <row r="39" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="22" t="s">
+      <c r="E39" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="3">
+        <v>5</v>
+      </c>
+      <c r="G39" s="3">
+        <v>5</v>
+      </c>
+      <c r="H39" s="3">
+        <v>5</v>
+      </c>
+      <c r="I39" s="3">
+        <v>2</v>
+      </c>
+      <c r="J39" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="M39" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="240.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="62"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="8">
+        <v>5</v>
+      </c>
+      <c r="G40" s="8">
+        <v>5</v>
+      </c>
+      <c r="H40" s="8">
+        <v>5</v>
+      </c>
+      <c r="I40" s="8">
+        <v>2</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="M40" s="45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="127.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="62">
+        <v>4</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="11">
+        <v>5</v>
+      </c>
+      <c r="G41" s="11">
+        <v>5</v>
+      </c>
+      <c r="H41" s="11">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="62"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="3">
-        <v>5</v>
-      </c>
-      <c r="G37" s="3">
-        <v>5</v>
-      </c>
-      <c r="H37" s="3">
-        <v>5</v>
-      </c>
-      <c r="I37" s="3">
+      <c r="F42" s="3">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3">
         <v>2</v>
       </c>
-      <c r="J37" s="29" t="s">
+      <c r="J42" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="35"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="7" t="s">
+      <c r="K42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="62"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E43" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="13">
-        <v>5</v>
-      </c>
-      <c r="G38" s="13">
-        <v>5</v>
-      </c>
-      <c r="H38" s="13">
-        <v>5</v>
-      </c>
-      <c r="I38" s="10">
+      <c r="F43" s="13">
+        <v>5</v>
+      </c>
+      <c r="G43" s="13">
+        <v>5</v>
+      </c>
+      <c r="H43" s="13">
+        <v>5</v>
+      </c>
+      <c r="I43" s="10">
         <v>2</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="J43" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="K38" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L38" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="M38" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="119.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="35">
-        <v>5</v>
-      </c>
-      <c r="B39" s="34" t="s">
+      <c r="K43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L43" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="M43" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="119.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="62">
+        <v>5</v>
+      </c>
+      <c r="B44" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C44" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="E44" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="12">
-        <v>5</v>
-      </c>
-      <c r="G39" s="12">
-        <v>5</v>
-      </c>
-      <c r="H39" s="12">
-        <v>5</v>
-      </c>
-      <c r="I39" s="9">
+      <c r="F44" s="12">
+        <v>5</v>
+      </c>
+      <c r="G44" s="12">
+        <v>5</v>
+      </c>
+      <c r="H44" s="12">
+        <v>5</v>
+      </c>
+      <c r="I44" s="9">
         <v>2</v>
       </c>
-      <c r="J39" s="31" t="s">
+      <c r="J44" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="K39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L39" s="28" t="s">
+      <c r="K44" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L44" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="62"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2</v>
+      </c>
+      <c r="J45" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L45" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="M45" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="168.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="62"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F46" s="11">
+        <v>5</v>
+      </c>
+      <c r="G46" s="11">
+        <v>5</v>
+      </c>
+      <c r="H46" s="11">
+        <v>5</v>
+      </c>
+      <c r="I46" s="11">
+        <v>2</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L46" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="M46" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="127.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="62">
+        <v>6</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="12">
+        <v>5</v>
+      </c>
+      <c r="G47" s="12">
+        <v>5</v>
+      </c>
+      <c r="H47" s="12">
+        <v>5</v>
+      </c>
+      <c r="I47" s="12">
+        <v>2</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K47" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L47" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="M39" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="2" t="s">
+      <c r="M47" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="62"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="3">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3">
-        <v>5</v>
-      </c>
-      <c r="H40" s="3">
-        <v>5</v>
-      </c>
-      <c r="I40" s="3">
+      <c r="E48" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>2</v>
       </c>
-      <c r="J40" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L40" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="M40" s="46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="168.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="7" t="s">
+      <c r="J48" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L48" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="M48" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="187.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="62"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="11">
-        <v>5</v>
-      </c>
-      <c r="G41" s="11">
-        <v>5</v>
-      </c>
-      <c r="H41" s="11">
-        <v>5</v>
-      </c>
-      <c r="I41" s="11">
+      <c r="E49" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="11">
+        <v>5</v>
+      </c>
+      <c r="G49" s="11">
+        <v>5</v>
+      </c>
+      <c r="H49" s="11">
+        <v>5</v>
+      </c>
+      <c r="I49" s="11">
         <v>2</v>
       </c>
-      <c r="J41" s="31" t="s">
+      <c r="J49" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L49" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="M49" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="62">
+        <v>7</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="6">
+        <v>5</v>
+      </c>
+      <c r="G50" s="6">
+        <v>5</v>
+      </c>
+      <c r="H50" s="6">
+        <v>4</v>
+      </c>
+      <c r="I50" s="12">
+        <v>2</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="K50" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L50" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="62"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="3">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3">
+        <v>5</v>
+      </c>
+      <c r="H51" s="3">
+        <v>5</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="62"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="11">
+        <v>5</v>
+      </c>
+      <c r="G52" s="11">
+        <v>5</v>
+      </c>
+      <c r="H52" s="11">
+        <v>5</v>
+      </c>
+      <c r="I52" s="11">
+        <v>2</v>
+      </c>
+      <c r="J52" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="K41" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L41" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="M41" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="127.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="35">
-        <v>6</v>
-      </c>
-      <c r="B42" s="34" t="s">
+      <c r="K52" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L52" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="M52" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="62">
+        <v>8</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="12">
+        <v>5</v>
+      </c>
+      <c r="G53" s="12">
+        <v>5</v>
+      </c>
+      <c r="H53" s="12">
+        <v>4</v>
+      </c>
+      <c r="I53" s="12">
+        <v>2</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="L53" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="62"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="11">
+        <v>5</v>
+      </c>
+      <c r="G54" s="11">
+        <v>5</v>
+      </c>
+      <c r="H54" s="11">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>2</v>
+      </c>
+      <c r="J54" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L54" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="M54" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="62"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F55" s="10">
+        <v>5</v>
+      </c>
+      <c r="G55" s="10">
+        <v>5</v>
+      </c>
+      <c r="H55" s="10">
+        <v>5</v>
+      </c>
+      <c r="I55" s="11">
+        <v>2</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L55" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="M55" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="62">
         <v>9</v>
       </c>
-      <c r="C42" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="B56" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="12">
-        <v>5</v>
-      </c>
-      <c r="G42" s="12">
-        <v>5</v>
-      </c>
-      <c r="H42" s="12">
-        <v>5</v>
-      </c>
-      <c r="I42" s="12">
+      <c r="E56" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="6">
+        <v>4</v>
+      </c>
+      <c r="G56" s="6">
+        <v>3</v>
+      </c>
+      <c r="H56" s="6">
+        <v>3</v>
+      </c>
+      <c r="I56" s="12">
+        <v>1</v>
+      </c>
+      <c r="J56" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L56" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="62"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>2</v>
       </c>
-      <c r="J42" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="L42" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="2" t="s">
+      <c r="J57" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L57" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="M57" s="44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="62"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F58" s="11">
+        <v>5</v>
+      </c>
+      <c r="G58" s="11">
+        <v>5</v>
+      </c>
+      <c r="H58" s="11">
+        <v>5</v>
+      </c>
+      <c r="I58" s="11">
+        <v>2</v>
+      </c>
+      <c r="J58" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L58" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="M58" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="132.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="62">
+        <v>10</v>
+      </c>
+      <c r="B59" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="12">
+        <v>5</v>
+      </c>
+      <c r="G59" s="12">
+        <v>5</v>
+      </c>
+      <c r="H59" s="12">
+        <v>5</v>
+      </c>
+      <c r="I59" s="12">
+        <v>2</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L59" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="62"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>5</v>
-      </c>
-      <c r="H43" s="3">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="E60" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="11">
+        <v>5</v>
+      </c>
+      <c r="G60" s="11">
+        <v>5</v>
+      </c>
+      <c r="H60" s="11">
+        <v>5</v>
+      </c>
+      <c r="I60" s="13">
         <v>2</v>
       </c>
-      <c r="J43" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K43" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="L43" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="M43" s="46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="187.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="35"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="7" t="s">
+      <c r="J60" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L60" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="216.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="62"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="11">
-        <v>5</v>
-      </c>
-      <c r="G44" s="11">
-        <v>5</v>
-      </c>
-      <c r="H44" s="11">
-        <v>5</v>
-      </c>
-      <c r="I44" s="11">
+      <c r="E61" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F61" s="10">
+        <v>5</v>
+      </c>
+      <c r="G61" s="10">
+        <v>5</v>
+      </c>
+      <c r="H61" s="10">
+        <v>5</v>
+      </c>
+      <c r="I61" s="10">
         <v>2</v>
       </c>
-      <c r="J44" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="K44" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L44" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="M44" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="35">
-        <v>7</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="6">
-        <v>5</v>
-      </c>
-      <c r="G45" s="6">
-        <v>5</v>
-      </c>
-      <c r="H45" s="6">
-        <v>4</v>
-      </c>
-      <c r="I45" s="12">
-        <v>2</v>
-      </c>
-      <c r="J45" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="K45" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="L45" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="35"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F46" s="3">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
-        <v>2</v>
-      </c>
-      <c r="J46" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="35"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="11">
-        <v>5</v>
-      </c>
-      <c r="G47" s="11">
-        <v>5</v>
-      </c>
-      <c r="H47" s="11">
-        <v>5</v>
-      </c>
-      <c r="I47" s="11">
-        <v>2</v>
-      </c>
-      <c r="J47" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L47" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="M47" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="35">
-        <v>8</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F48" s="12">
-        <v>5</v>
-      </c>
-      <c r="G48" s="12">
-        <v>5</v>
-      </c>
-      <c r="H48" s="12">
-        <v>4</v>
-      </c>
-      <c r="I48" s="12">
-        <v>2</v>
-      </c>
-      <c r="J48" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="K48" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="L48" s="28" t="s">
+      <c r="J61" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L61" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="M48" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="35"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F49" s="11">
-        <v>5</v>
-      </c>
-      <c r="G49" s="11">
-        <v>5</v>
-      </c>
-      <c r="H49" s="11">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2</v>
-      </c>
-      <c r="J49" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L49" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="M49" s="46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="35"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="10">
-        <v>5</v>
-      </c>
-      <c r="G50" s="10">
-        <v>5</v>
-      </c>
-      <c r="H50" s="10">
-        <v>5</v>
-      </c>
-      <c r="I50" s="11">
-        <v>2</v>
-      </c>
-      <c r="J50" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L50" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="M50" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="35">
-        <v>9</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="6">
-        <v>4</v>
-      </c>
-      <c r="G51" s="6">
-        <v>3</v>
-      </c>
-      <c r="H51" s="6">
-        <v>3</v>
-      </c>
-      <c r="I51" s="12">
-        <v>1</v>
-      </c>
-      <c r="J51" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="K51" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="L51" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="35"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F52" s="3">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
-        <v>2</v>
-      </c>
-      <c r="J52" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L52" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="M52" s="46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="35"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F53" s="11">
-        <v>5</v>
-      </c>
-      <c r="G53" s="11">
-        <v>5</v>
-      </c>
-      <c r="H53" s="11">
-        <v>5</v>
-      </c>
-      <c r="I53" s="11">
-        <v>2</v>
-      </c>
-      <c r="J53" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K53" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L53" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="M53" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="132.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="35">
-        <v>10</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F54" s="12">
-        <v>5</v>
-      </c>
-      <c r="G54" s="12">
-        <v>5</v>
-      </c>
-      <c r="H54" s="12">
-        <v>5</v>
-      </c>
-      <c r="I54" s="12">
-        <v>2</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L54" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="35"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="11">
-        <v>5</v>
-      </c>
-      <c r="G55" s="11">
-        <v>5</v>
-      </c>
-      <c r="H55" s="11">
-        <v>5</v>
-      </c>
-      <c r="I55" s="13">
-        <v>2</v>
-      </c>
-      <c r="J55" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L55" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="216.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="35"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="10">
-        <v>5</v>
-      </c>
-      <c r="G56" s="10">
-        <v>5</v>
-      </c>
-      <c r="H56" s="10">
-        <v>5</v>
-      </c>
-      <c r="I56" s="10">
-        <v>2</v>
-      </c>
-      <c r="J56" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="K56" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="L56" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="M56" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
+      <c r="M61" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="B62" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C39:C41"/>
+  <mergeCells count="31">
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6742,176 +6855,176 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="45" t="s">
-        <v>145</v>
+      <c r="A2" s="43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="42">
+        <f>AVERAGE('AI response evaluation '!F32,'AI response evaluation '!F35,'AI response evaluation '!F38,'AI response evaluation '!F41,'AI response evaluation '!F45,'AI response evaluation '!F47,'AI response evaluation '!F50,'AI response evaluation '!F53,'AI response evaluation '!F56,'AI response evaluation '!F59)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C4" s="42">
+        <f>AVERAGE('AI response evaluation '!G32,'AI response evaluation '!G35,'AI response evaluation '!G38,'AI response evaluation '!G41,'AI response evaluation '!G45,'AI response evaluation '!G47,'AI response evaluation '!G50,'AI response evaluation '!G53,'AI response evaluation '!G56,'AI response evaluation '!G59)</f>
+        <v>4.8</v>
+      </c>
+      <c r="D4" s="42">
+        <f>AVERAGE('AI response evaluation '!H32,'AI response evaluation '!H35,'AI response evaluation '!H38,'AI response evaluation '!H41,'AI response evaluation '!H45,'AI response evaluation '!H47,'AI response evaluation '!H50,'AI response evaluation '!H53,'AI response evaluation '!H56,'AI response evaluation '!H59)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="42">
+        <f>AVERAGE('AI response evaluation '!I32,'AI response evaluation '!I35,'AI response evaluation '!I38,'AI response evaluation '!I41,'AI response evaluation '!I45,'AI response evaluation '!I47,'AI response evaluation '!I50,'AI response evaluation '!I53,'AI response evaluation '!I56,'AI response evaluation '!I59)</f>
+        <v>1.9</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37">
+        <f>AVERAGE('AI response evaluation '!F33,'AI response evaluation '!F36,'AI response evaluation '!F39,'AI response evaluation '!F42,'AI response evaluation '!F46,'AI response evaluation '!F48,'AI response evaluation '!F51,'AI response evaluation '!F54,'AI response evaluation '!F57,'AI response evaluation '!F60)</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="37">
+        <f>AVERAGE('AI response evaluation '!G33,'AI response evaluation '!G36,'AI response evaluation '!G39,'AI response evaluation '!G42,'AI response evaluation '!G46,'AI response evaluation '!G48,'AI response evaluation '!G51,'AI response evaluation '!G54,'AI response evaluation '!G57,'AI response evaluation '!G60)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="37">
+        <f>AVERAGE('AI response evaluation '!H33,'AI response evaluation '!H36,'AI response evaluation '!H39,'AI response evaluation '!H42,'AI response evaluation '!H46,'AI response evaluation '!H48,'AI response evaluation '!H51,'AI response evaluation '!H54,'AI response evaluation '!H57,'AI response evaluation '!H60)</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="37">
+        <f>AVERAGE('AI response evaluation '!I33,'AI response evaluation '!I36,'AI response evaluation '!I39,'AI response evaluation '!I42,'AI response evaluation '!I46,'AI response evaluation '!I48,'AI response evaluation '!I51,'AI response evaluation '!I54,'AI response evaluation '!I57,'AI response evaluation '!I60)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="40">
+        <f>AVERAGE('AI response evaluation '!F34,'AI response evaluation '!F37,'AI response evaluation '!F40,'AI response evaluation '!F43,'AI response evaluation '!F47,'AI response evaluation '!F49,'AI response evaluation '!F52,'AI response evaluation '!F55,'AI response evaluation '!F58,'AI response evaluation '!F61)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C6" s="40">
+        <f>AVERAGE('AI response evaluation '!G34,'AI response evaluation '!G37,'AI response evaluation '!G40,'AI response evaluation '!G43,'AI response evaluation '!G47,'AI response evaluation '!G49,'AI response evaluation '!G52,'AI response evaluation '!G55,'AI response evaluation '!G58,'AI response evaluation '!G61)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D6" s="40">
+        <f>AVERAGE('AI response evaluation '!H34,'AI response evaluation '!H37,'AI response evaluation '!H40,'AI response evaluation '!H43,'AI response evaluation '!H47,'AI response evaluation '!H49,'AI response evaluation '!H52,'AI response evaluation '!H55,'AI response evaluation '!H58,'AI response evaluation '!H61)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E6" s="40">
+        <f>AVERAGE('AI response evaluation '!I34,'AI response evaluation '!I37,'AI response evaluation '!I40,'AI response evaluation '!I43,'AI response evaluation '!I47,'AI response evaluation '!I49,'AI response evaluation '!I52,'AI response evaluation '!I55,'AI response evaluation '!I58,'AI response evaluation '!I61)</f>
+        <v>1.9</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="64" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="47"/>
+    </row>
+    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="44">
-        <f>AVERAGE('AI response evaluation '!F27,'AI response evaluation '!F30,'AI response evaluation '!F33,'AI response evaluation '!F36,'AI response evaluation '!F40,'AI response evaluation '!F42,'AI response evaluation '!F45,'AI response evaluation '!F48,'AI response evaluation '!F51,'AI response evaluation '!F54)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C4" s="44">
-        <f>AVERAGE('AI response evaluation '!G27,'AI response evaluation '!G30,'AI response evaluation '!G33,'AI response evaluation '!G36,'AI response evaluation '!G40,'AI response evaluation '!G42,'AI response evaluation '!G45,'AI response evaluation '!G48,'AI response evaluation '!G51,'AI response evaluation '!G54)</f>
-        <v>4.8</v>
-      </c>
-      <c r="D4" s="44">
-        <f>AVERAGE('AI response evaluation '!H27,'AI response evaluation '!H30,'AI response evaluation '!H33,'AI response evaluation '!H36,'AI response evaluation '!H40,'AI response evaluation '!H42,'AI response evaluation '!H45,'AI response evaluation '!H48,'AI response evaluation '!H51,'AI response evaluation '!H54)</f>
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="44">
-        <f>AVERAGE('AI response evaluation '!I27,'AI response evaluation '!I30,'AI response evaluation '!I33,'AI response evaluation '!I36,'AI response evaluation '!I40,'AI response evaluation '!I42,'AI response evaluation '!I45,'AI response evaluation '!I48,'AI response evaluation '!I51,'AI response evaluation '!I54)</f>
-        <v>1.9</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="B10" s="12">
+        <f>COUNTIFS('AI response evaluation '!D32:D61, "ChatGPT-5", 'AI response evaluation '!M32:M61, "No error")</f>
+        <v>9</v>
+      </c>
+      <c r="C10" s="12">
+        <f>COUNTIFS('AI response evaluation '!D32:D61, "ChatGPT-5", 'AI response evaluation '!M32:M61, "Oversimplification")</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="60">
+        <f>COUNTIFS('AI response evaluation '!D32:D61, "ChatGPT-5", 'AI response evaluation '!M32:M61, "Misleading phrasing")</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39">
-        <f>AVERAGE('AI response evaluation '!F28,'AI response evaluation '!F31,'AI response evaluation '!F34,'AI response evaluation '!F37,'AI response evaluation '!F41,'AI response evaluation '!F43,'AI response evaluation '!F46,'AI response evaluation '!F49,'AI response evaluation '!F52,'AI response evaluation '!F55)</f>
-        <v>5</v>
-      </c>
-      <c r="C5" s="39">
-        <f>AVERAGE('AI response evaluation '!G28,'AI response evaluation '!G31,'AI response evaluation '!G34,'AI response evaluation '!G37,'AI response evaluation '!G41,'AI response evaluation '!G43,'AI response evaluation '!G46,'AI response evaluation '!G49,'AI response evaluation '!G52,'AI response evaluation '!G55)</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="39">
-        <f>AVERAGE('AI response evaluation '!H28,'AI response evaluation '!H31,'AI response evaluation '!H34,'AI response evaluation '!H37,'AI response evaluation '!H41,'AI response evaluation '!H43,'AI response evaluation '!H46,'AI response evaluation '!H49,'AI response evaluation '!H52,'AI response evaluation '!H55)</f>
-        <v>5</v>
-      </c>
-      <c r="E5" s="39">
-        <f>AVERAGE('AI response evaluation '!I28,'AI response evaluation '!I31,'AI response evaluation '!I34,'AI response evaluation '!I37,'AI response evaluation '!I41,'AI response evaluation '!I43,'AI response evaluation '!I46,'AI response evaluation '!I49,'AI response evaluation '!I52,'AI response evaluation '!I55)</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="56" t="s">
+      <c r="B11" s="3">
+        <f>COUNTIFS('AI response evaluation '!D32:D61, "Claude", 'AI response evaluation '!M32:M61, "No error")</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <f>COUNTIFS('AI response evaluation '!D32:D61, "Claude", 'AI response evaluation '!M32:M61, "Oversimplification")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="55">
+        <f>COUNTIFS('AI response evaluation '!D32:D61, "Claude", 'AI response evaluation '!M32:M61, "Misleading phrasing")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="48"/>
+    </row>
+    <row r="12" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="42">
-        <f>AVERAGE('AI response evaluation '!F29,'AI response evaluation '!F32,'AI response evaluation '!F35,'AI response evaluation '!F38,'AI response evaluation '!F42,'AI response evaluation '!F44,'AI response evaluation '!F47,'AI response evaluation '!F50,'AI response evaluation '!F53,'AI response evaluation '!F56)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C6" s="42">
-        <f>AVERAGE('AI response evaluation '!G29,'AI response evaluation '!G32,'AI response evaluation '!G35,'AI response evaluation '!G38,'AI response evaluation '!G42,'AI response evaluation '!G44,'AI response evaluation '!G47,'AI response evaluation '!G50,'AI response evaluation '!G53,'AI response evaluation '!G56)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D6" s="42">
-        <f>AVERAGE('AI response evaluation '!H29,'AI response evaluation '!H32,'AI response evaluation '!H35,'AI response evaluation '!H38,'AI response evaluation '!H42,'AI response evaluation '!H44,'AI response evaluation '!H47,'AI response evaluation '!H50,'AI response evaluation '!H53,'AI response evaluation '!H56)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E6" s="42">
-        <f>AVERAGE('AI response evaluation '!I29,'AI response evaluation '!I32,'AI response evaluation '!I35,'AI response evaluation '!I38,'AI response evaluation '!I42,'AI response evaluation '!I44,'AI response evaluation '!I47,'AI response evaluation '!I50,'AI response evaluation '!I53,'AI response evaluation '!I56)</f>
-        <v>1.9</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="49"/>
-    </row>
-    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="50"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="12">
-        <f>COUNTIFS('AI response evaluation '!D27:D56, "ChatGPT-5", 'AI response evaluation '!M27:M56, "No error")</f>
+      <c r="B12" s="10">
+        <f>COUNTIFS('AI response evaluation '!D32:D61, "Copilot", 'AI response evaluation '!M32:M61, "No error")</f>
         <v>9</v>
       </c>
-      <c r="C10" s="12">
-        <f>COUNTIFS('AI response evaluation '!D27:D56, "ChatGPT-5", 'AI response evaluation '!M27:M56, "Oversimplification")</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="62">
-        <f>COUNTIFS('AI response evaluation '!D27:D56, "ChatGPT-5", 'AI response evaluation '!M27:M56, "Misleading phrasing")</f>
+      <c r="C12" s="10">
+        <f>COUNTIFS('AI response evaluation '!D32:D61, "Copilot", 'AI response evaluation '!M32:M61, "Oversimplification")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
-        <f>COUNTIFS('AI response evaluation '!D27:D56, "Claude", 'AI response evaluation '!M27:M56, "No error")</f>
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <f>COUNTIFS('AI response evaluation '!D27:D56, "Claude", 'AI response evaluation '!M27:M56, "Oversimplification")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="57">
-        <f>COUNTIFS('AI response evaluation '!D27:D56, "Claude", 'AI response evaluation '!M27:M56, "Misleading phrasing")</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="50"/>
-    </row>
-    <row r="12" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="10">
-        <f>COUNTIFS('AI response evaluation '!D27:D56, "Copilot", 'AI response evaluation '!M27:M56, "No error")</f>
-        <v>9</v>
-      </c>
-      <c r="C12" s="10">
-        <f>COUNTIFS('AI response evaluation '!D27:D56, "Copilot", 'AI response evaluation '!M27:M56, "Oversimplification")</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="58">
-        <f>COUNTIFS('AI response evaluation '!D27:D56, "Copilot", 'AI response evaluation '!M27:M56, "Misleading phrasing")</f>
+      <c r="D12" s="56">
+        <f>COUNTIFS('AI response evaluation '!D32:D61, "Copilot", 'AI response evaluation '!M32:M61, "Misleading phrasing")</f>
         <v>1</v>
       </c>
     </row>
@@ -6927,7 +7040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C6A005-DE7F-426A-9163-9BC188128668}">
   <dimension ref="A16:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
@@ -6935,51 +7048,51 @@
   <sheetData>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="64"/>
+      <c r="A17" s="61"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64" t="s">
-        <v>153</v>
+      <c r="A18" s="61" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="64"/>
+      <c r="A19" s="61"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64" t="s">
-        <v>151</v>
+      <c r="A20" s="61" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
+      <c r="A21" s="61"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64" t="s">
-        <v>152</v>
+      <c r="A22" s="61" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">

--- a/AI response analysis.xlsx
+++ b/AI response analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEENU\Git\GitHubRepository\Cell-Biology-Misconceptions-Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC03BD2D-A851-4D8B-99DB-C350FEECC64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9023C760-8999-40F0-B8AB-99DF6913EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC19697D-DDCA-44B7-A586-36CE1978274E}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,13 +865,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1209,7 +1202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1386,62 +1379,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5393,7 +5383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F3884D-1694-42F8-893E-475AD91816DC}">
   <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -5436,10 +5426,10 @@
       <c r="A5" s="15"/>
     </row>
     <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
@@ -5452,192 +5442,182 @@
       <c r="L6" s="16"/>
     </row>
     <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="64" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
     </row>
     <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
     </row>
     <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-    </row>
+    </row>
+    <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:12" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
     </row>
     <row r="15" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="70"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
     </row>
     <row r="16" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73">
+      <c r="A16" s="67">
         <v>1</v>
       </c>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="75"/>
-      <c r="D16" s="70"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="65"/>
     </row>
     <row r="17" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73">
+      <c r="A17" s="67">
         <v>2</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
     </row>
     <row r="18" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73">
+      <c r="A18" s="67">
         <v>3</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
     </row>
     <row r="19" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73">
+      <c r="A19" s="67">
         <v>4</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="68" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
     </row>
     <row r="20" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73">
-        <v>5</v>
-      </c>
-      <c r="B20" s="74" t="s">
+      <c r="A20" s="67">
+        <v>5</v>
+      </c>
+      <c r="B20" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="70"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="76" t="s">
+      <c r="A22" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
     </row>
     <row r="23" spans="1:13" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="76"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
+      <c r="A23" s="70"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
     </row>
     <row r="25" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="77">
+      <c r="A25" s="71">
         <v>2</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
     </row>
     <row r="26" spans="1:13" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79">
+      <c r="A26" s="73">
         <v>1</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
     </row>
     <row r="27" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="77">
+      <c r="A27" s="71">
         <v>0</v>
       </c>
-      <c r="B27" s="78" t="s">
+      <c r="B27" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
     </row>
     <row r="29" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="84" t="s">
+      <c r="A29" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="66"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
@@ -5684,13 +5664,13 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="62">
+      <c r="A32" s="80">
         <v>1</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="79" t="s">
         <v>88</v>
       </c>
       <c r="D32" s="5" t="s">
@@ -5725,9 +5705,9 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="2" t="s">
         <v>4</v>
       </c>
@@ -5760,9 +5740,9 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="189.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="7" t="s">
         <v>46</v>
       </c>
@@ -5795,13 +5775,13 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="148.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="62">
+      <c r="A35" s="80">
         <v>2</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="63" t="s">
+      <c r="C35" s="79" t="s">
         <v>14</v>
       </c>
       <c r="D35" s="5" t="s">
@@ -5836,9 +5816,9 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="62"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="2" t="s">
         <v>4</v>
       </c>
@@ -5871,9 +5851,9 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="62"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="80"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="7" t="s">
         <v>46</v>
       </c>
@@ -5906,13 +5886,13 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="62">
+      <c r="A38" s="80">
         <v>3</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="79" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="5" t="s">
@@ -5947,9 +5927,9 @@
       </c>
     </row>
     <row r="39" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="2" t="s">
         <v>4</v>
       </c>
@@ -5982,9 +5962,9 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="240.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="62"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="7" t="s">
         <v>46</v>
       </c>
@@ -6017,13 +5997,13 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="127.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="62">
+      <c r="A41" s="80">
         <v>4</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C41" s="63" t="s">
+      <c r="C41" s="79" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -6058,9 +6038,9 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="62"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
+      <c r="A42" s="80"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="2" t="s">
         <v>4</v>
       </c>
@@ -6093,9 +6073,9 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="62"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="63"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="7" t="s">
         <v>46</v>
       </c>
@@ -6128,13 +6108,13 @@
       </c>
     </row>
     <row r="44" spans="1:13" ht="119.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="62">
-        <v>5</v>
-      </c>
-      <c r="B44" s="63" t="s">
+      <c r="A44" s="80">
+        <v>5</v>
+      </c>
+      <c r="B44" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="79" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="5" t="s">
@@ -6169,9 +6149,9 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="62"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="80"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="2" t="s">
         <v>4</v>
       </c>
@@ -6204,9 +6184,9 @@
       </c>
     </row>
     <row r="46" spans="1:13" ht="168.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="62"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
+      <c r="A46" s="80"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="7" t="s">
         <v>46</v>
       </c>
@@ -6239,13 +6219,13 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="127.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="62">
+      <c r="A47" s="80">
         <v>6</v>
       </c>
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="63" t="s">
+      <c r="C47" s="79" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="5" t="s">
@@ -6280,9 +6260,9 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="62"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
+      <c r="A48" s="80"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="2" t="s">
         <v>4</v>
       </c>
@@ -6315,9 +6295,9 @@
       </c>
     </row>
     <row r="49" spans="1:13" ht="187.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="62"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="80"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="7" t="s">
         <v>46</v>
       </c>
@@ -6350,13 +6330,13 @@
       </c>
     </row>
     <row r="50" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="62">
+      <c r="A50" s="80">
         <v>7</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="63" t="s">
+      <c r="C50" s="79" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -6391,9 +6371,9 @@
       </c>
     </row>
     <row r="51" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="62"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="63"/>
+      <c r="A51" s="80"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="2" t="s">
         <v>4</v>
       </c>
@@ -6426,9 +6406,9 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="62"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="80"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="7" t="s">
         <v>46</v>
       </c>
@@ -6461,13 +6441,13 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="62">
+      <c r="A53" s="80">
         <v>8</v>
       </c>
-      <c r="B53" s="63" t="s">
+      <c r="B53" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="C53" s="63" t="s">
+      <c r="C53" s="79" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="5" t="s">
@@ -6502,9 +6482,9 @@
       </c>
     </row>
     <row r="54" spans="1:13" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="62"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="63"/>
+      <c r="A54" s="80"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="79"/>
       <c r="D54" s="2" t="s">
         <v>4</v>
       </c>
@@ -6537,9 +6517,9 @@
       </c>
     </row>
     <row r="55" spans="1:13" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="62"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
+      <c r="A55" s="80"/>
+      <c r="B55" s="79"/>
+      <c r="C55" s="79"/>
       <c r="D55" s="7" t="s">
         <v>46</v>
       </c>
@@ -6572,13 +6552,13 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="62">
+      <c r="A56" s="80">
         <v>9</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="79" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -6613,9 +6593,9 @@
       </c>
     </row>
     <row r="57" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="62"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
+      <c r="A57" s="80"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="2" t="s">
         <v>4</v>
       </c>
@@ -6648,9 +6628,9 @@
       </c>
     </row>
     <row r="58" spans="1:13" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="62"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="63"/>
+      <c r="A58" s="80"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="79"/>
       <c r="D58" s="7" t="s">
         <v>46</v>
       </c>
@@ -6683,13 +6663,13 @@
       </c>
     </row>
     <row r="59" spans="1:13" ht="132.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="62">
+      <c r="A59" s="80">
         <v>10</v>
       </c>
-      <c r="B59" s="63" t="s">
+      <c r="B59" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="63" t="s">
+      <c r="C59" s="79" t="s">
         <v>22</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -6724,9 +6704,9 @@
       </c>
     </row>
     <row r="60" spans="1:13" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="62"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="63"/>
+      <c r="A60" s="80"/>
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
       <c r="D60" s="2" t="s">
         <v>4</v>
       </c>
@@ -6759,9 +6739,9 @@
       </c>
     </row>
     <row r="61" spans="1:13" ht="216.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="62"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
+      <c r="A61" s="80"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="7" t="s">
         <v>46</v>
       </c>
@@ -6798,6 +6778,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="B50:B52"/>
     <mergeCell ref="C50:C52"/>
@@ -6814,21 +6809,6 @@
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="A53:A55"/>
     <mergeCell ref="B53:B55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6952,12 +6932,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7040,8 +7020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C6A005-DE7F-426A-9163-9BC188128668}">
   <dimension ref="A16:A36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/AI response analysis.xlsx
+++ b/AI response analysis.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEENU\Git\GitHubRepository\Cell-Biology-Misconceptions-Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9023C760-8999-40F0-B8AB-99DF6913EBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50FB14-FCE9-427A-8180-34982531B554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC19697D-DDCA-44B7-A586-36CE1978274E}"/>
   </bookViews>
   <sheets>
-    <sheet name="AI response evaluation " sheetId="1" r:id="rId1"/>
-    <sheet name="AI model performance summary" sheetId="2" r:id="rId2"/>
-    <sheet name="Charts &amp; Observations" sheetId="3" r:id="rId3"/>
+    <sheet name="Project Overview &amp; Scoring Rubr" sheetId="4" r:id="rId1"/>
+    <sheet name="AI response evaluation " sheetId="1" r:id="rId2"/>
+    <sheet name="AI model performance summary" sheetId="2" r:id="rId3"/>
+    <sheet name="Charts &amp; Observations" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'AI response evaluation '!$A$1:$M$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Overview &amp; Scoring Rubr'!$A$1:$E$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="178">
   <si>
     <t>AI Model</t>
   </si>
@@ -192,14 +197,6 @@
   </si>
   <si>
     <t>Completeness (1-5)</t>
-  </si>
-  <si>
-    <t>Yes, DNA is longer than a cell, but thanks to its microscopic width and efficient packaging, it fits neatly inside.                                                                                                          -  DNA vs. Cell Size
-- DNA molecule length: If you stretched out all the DNA from a single human cell, it would be about 2 meters long.
-- Cell size: A typical human cell is only about 10–100 micrometers (µm) across — that’s a millionth of a meter.
-- DNA is much longer than the cell itself when fully extended.
-- However, DNA is extremely thin (about 2 nanometers wide), so it can be tightly packed and coiled inside the cell’s nucleus.
-- Specialized proteins (like histones) help wrap DNA into compact structures called chromosomes, allowing it to fit inside the tiny cell.</t>
   </si>
   <si>
     <t>DNA is larger than a cell.</t>
@@ -686,9 +683,6 @@
     </r>
   </si>
   <si>
-    <t>Dataset Information :</t>
-  </si>
-  <si>
     <t>Category Scoring (1–5 per response)</t>
   </si>
   <si>
@@ -704,32 +698,63 @@
     <t>Fair — partly correct or vague</t>
   </si>
   <si>
-    <t>Good — mostly correct</t>
-  </si>
-  <si>
     <t>Very Good — correct and clear</t>
   </si>
   <si>
-    <t>Excellent — correct, clear, complete</t>
-  </si>
-  <si>
     <t>Final Correctness Score (0–2)</t>
   </si>
   <si>
     <t>Final Score</t>
   </si>
   <si>
-    <t>Fully correct – no major issues</t>
-  </si>
-  <si>
-    <t>Partially correct – minor clarity/completeness issues</t>
-  </si>
-  <si>
-    <t>Incorrect or misleading</t>
+    <t>Cell Biology Misconceptions - AI Model Evaluation</t>
+  </si>
+  <si>
+    <t>Fully correct &amp; clear</t>
+  </si>
+  <si>
+    <t>Yes, DNA is longer than a cell, but thanks to its microscopic width and efficient packaging, it fits neatly inside.                                                                                                                                 -  DNA vs. Cell Size
+- DNA molecule length: If you stretched out all the DNA from a single human cell, it would be about 2 meters long.
+- Cell size: A typical human cell is only about 10–100 micrometers (µm) across — that’s a millionth of a meter.
+- DNA is much longer than the cell itself when fully extended.
+- However, DNA is extremely thin (about 2 nanometers wide), so it can be tightly packed and coiled inside the cell’s nucleus.
+- Specialized proteins (like histones) help wrap DNA into compact structures called chromosomes, allowing it to fit inside the tiny cell.</t>
+  </si>
+  <si>
+    <t>Good — correct but minimal</t>
+  </si>
+  <si>
+    <t>Excellent — Fully correct, clear &amp; well framed</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Contains factual errors, confusion, or fails to answer properly.</t>
+  </si>
+  <si>
+    <t>Some correct ideas, but missing key points or unclear phrasing.</t>
+  </si>
+  <si>
+    <t>Accurate and understandable, but lacks clarity/detail that would improve it.</t>
+  </si>
+  <si>
+    <t>Scientifically accurate and well phrased. Minor extra detail could improve depth.</t>
   </si>
   <si>
     <r>
-      <t>Dataset Type:</t>
+      <t xml:space="preserve">Direct answer that completely resolves the question. Can be short </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
     </r>
     <r>
       <rPr>
@@ -739,74 +764,77 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> AI Biological Knowledge Evaluation</t>
+      <t xml:space="preserve"> detailed—both qualify if the response is precise, clear, and leaves no important gap</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Domain:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cell Biology &amp; Misconceptions</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Data Collection Period:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t> 15–30 Nov 2025.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Models Evaluated:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t> ChatGPT-5, Claude (latest public), Copilot.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Evaluation Method:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF1F2328"/>
-        <rFont val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t> Responses copied verbatim; assessed manually and scored numerically</t>
-    </r>
-  </si>
-  <si>
-    <t>Note: Length of response does not affect scoring unless it causes confusion or misinformation.</t>
-  </si>
-  <si>
-    <t>Cell Biology Misconceptions - AI Model Evaluation</t>
+    <t>Correct but phrasing is confusing or partially misleading</t>
+  </si>
+  <si>
+    <t>Incorrect or reinforces misconception</t>
+  </si>
+  <si>
+    <t>Dataset Type:</t>
+  </si>
+  <si>
+    <t>AI Biological Knowledge Evaluation</t>
+  </si>
+  <si>
+    <t>Domain:</t>
+  </si>
+  <si>
+    <t>Cell Biology &amp; Misconceptions</t>
+  </si>
+  <si>
+    <t>Data Collection Period:</t>
+  </si>
+  <si>
+    <t>15–30 Nov 2025</t>
+  </si>
+  <si>
+    <t>Models Evaluated:</t>
+  </si>
+  <si>
+    <t>ChatGPT-5, Claude (latest public), Copilot</t>
+  </si>
+  <si>
+    <t>Evaluation Method:</t>
+  </si>
+  <si>
+    <t>Responses copied verbatim; assessed manually and scored numerically</t>
+  </si>
+  <si>
+    <t>Sources Consulted:</t>
+  </si>
+  <si>
+    <t>OpenStax Biology 2e, Khan Academy, Encyclopaedia Britannica, PubMed Central (PMC3005844) (Nov–Dec 2025)</t>
+  </si>
+  <si>
+    <t>Project Overview &amp; Scoring Rubric</t>
+  </si>
+  <si>
+    <t>Factual correctness (no scientific errors)</t>
+  </si>
+  <si>
+    <t>Understandable and well-phrased</t>
+  </si>
+  <si>
+    <t>Fully addresses the question</t>
+  </si>
+  <si>
+    <t>Note:</t>
+  </si>
+  <si>
+    <t>Differences in length/detail do not affect score unless they introduce confusion or misinformation</t>
+  </si>
+  <si>
+    <t>Accuracy :</t>
+  </si>
+  <si>
+    <t>Clarity:</t>
+  </si>
+  <si>
+    <t>Completeness:</t>
   </si>
 </sst>
 </file>
@@ -816,7 +844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,41 +876,11 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F2328"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F2328"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
@@ -905,6 +903,45 @@
       <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1202,48 +1239,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1251,52 +1260,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1324,16 +1287,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1379,59 +1333,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5380,20 +5415,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F3884D-1694-42F8-893E-475AD91816DC}">
-  <dimension ref="A1:M62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5DCE04-2A72-4EFE-A565-1DDF7A460F08}">
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="58.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
@@ -5404,1423 +5439,1589 @@
     <col min="13" max="13" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="73" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="B4" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="74"/>
+    </row>
+    <row r="9" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="74"/>
+    </row>
+    <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="73"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+    </row>
+    <row r="11" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="73" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+    </row>
+    <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="74"/>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="34"/>
+    </row>
+    <row r="21" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="75">
+        <v>1</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="75">
+        <v>2</v>
+      </c>
+      <c r="B22" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" s="71" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="75">
+        <v>3</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="71" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64" t="s">
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="75">
+        <v>4</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="71" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64" t="s">
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="75">
+        <v>5</v>
+      </c>
+      <c r="B25" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="71" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64" t="s">
+      <c r="D25" s="34"/>
+    </row>
+    <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="66">
+        <v>2</v>
+      </c>
+      <c r="B30" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="68">
+        <v>1</v>
+      </c>
+      <c r="B31" s="72" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="77" t="s">
-        <v>138</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-    </row>
-    <row r="14" spans="1:12" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-    </row>
-    <row r="15" spans="1:12" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-    </row>
-    <row r="16" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67">
-        <v>1</v>
-      </c>
-      <c r="B16" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="65"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67">
-        <v>2</v>
-      </c>
-      <c r="B17" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-    </row>
-    <row r="18" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67">
-        <v>3</v>
-      </c>
-      <c r="B18" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-    </row>
-    <row r="19" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="67">
-        <v>4</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-    </row>
-    <row r="20" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67">
-        <v>5</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-    </row>
-    <row r="23" spans="1:13" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="70"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-    </row>
-    <row r="25" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="71">
-        <v>2</v>
-      </c>
-      <c r="B25" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-    </row>
-    <row r="26" spans="1:13" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73">
-        <v>1</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-    </row>
-    <row r="27" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="71">
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="66">
         <v>0</v>
       </c>
-      <c r="B27" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-    </row>
-    <row r="29" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
+      <c r="B32" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-    </row>
-    <row r="31" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="141" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="80">
-        <v>1</v>
-      </c>
-      <c r="B32" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="6">
-        <v>5</v>
-      </c>
-      <c r="G32" s="6">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6">
-        <v>4</v>
-      </c>
-      <c r="I32" s="6">
-        <v>2</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K32" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L32" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="M32" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="60.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="80"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="3">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
-        <v>5</v>
-      </c>
-      <c r="H33" s="3">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>2</v>
-      </c>
-      <c r="J33" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="189.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="80"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="8">
-        <v>4</v>
-      </c>
-      <c r="G34" s="8">
-        <v>4</v>
-      </c>
-      <c r="H34" s="8">
-        <v>4</v>
-      </c>
-      <c r="I34" s="8">
-        <v>1</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="K34" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="148.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="80">
-        <v>2</v>
-      </c>
-      <c r="B35" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="6">
-        <v>5</v>
-      </c>
-      <c r="G35" s="6">
-        <v>5</v>
-      </c>
-      <c r="H35" s="6">
-        <v>5</v>
-      </c>
-      <c r="I35" s="6">
-        <v>2</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="M35" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="67.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="80"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" s="3">
-        <v>5</v>
-      </c>
-      <c r="G36" s="3">
-        <v>5</v>
-      </c>
-      <c r="H36" s="3">
-        <v>5</v>
-      </c>
-      <c r="I36" s="3">
-        <v>2</v>
-      </c>
-      <c r="J36" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="80"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="8">
-        <v>5</v>
-      </c>
-      <c r="G37" s="8">
-        <v>5</v>
-      </c>
-      <c r="H37" s="8">
-        <v>5</v>
-      </c>
-      <c r="I37" s="8">
-        <v>2</v>
-      </c>
-      <c r="J37" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="111.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="80">
-        <v>3</v>
-      </c>
-      <c r="B38" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="6">
-        <v>5</v>
-      </c>
-      <c r="G38" s="6">
-        <v>5</v>
-      </c>
-      <c r="H38" s="6">
-        <v>5</v>
-      </c>
-      <c r="I38" s="6">
-        <v>2</v>
-      </c>
-      <c r="J38" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="M38" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="80"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F39" s="3">
-        <v>5</v>
-      </c>
-      <c r="G39" s="3">
-        <v>5</v>
-      </c>
-      <c r="H39" s="3">
-        <v>5</v>
-      </c>
-      <c r="I39" s="3">
-        <v>2</v>
-      </c>
-      <c r="J39" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L39" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="M39" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="240.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="80"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="8">
-        <v>5</v>
-      </c>
-      <c r="G40" s="8">
-        <v>5</v>
-      </c>
-      <c r="H40" s="8">
-        <v>5</v>
-      </c>
-      <c r="I40" s="8">
-        <v>2</v>
-      </c>
-      <c r="J40" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L40" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="M40" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="127.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="80">
-        <v>4</v>
-      </c>
-      <c r="B41" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="11">
-        <v>5</v>
-      </c>
-      <c r="G41" s="11">
-        <v>5</v>
-      </c>
-      <c r="H41" s="11">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2</v>
-      </c>
-      <c r="J41" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L41" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="M41" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="80"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F42" s="3">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
-        <v>5</v>
-      </c>
-      <c r="H42" s="3">
-        <v>5</v>
-      </c>
-      <c r="I42" s="3">
-        <v>2</v>
-      </c>
-      <c r="J42" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L42" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="80"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="F43" s="13">
-        <v>5</v>
-      </c>
-      <c r="G43" s="13">
-        <v>5</v>
-      </c>
-      <c r="H43" s="13">
-        <v>5</v>
-      </c>
-      <c r="I43" s="10">
-        <v>2</v>
-      </c>
-      <c r="J43" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L43" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M43" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="119.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="80">
-        <v>5</v>
-      </c>
-      <c r="B44" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="12">
-        <v>5</v>
-      </c>
-      <c r="G44" s="12">
-        <v>5</v>
-      </c>
-      <c r="H44" s="12">
-        <v>5</v>
-      </c>
-      <c r="I44" s="9">
-        <v>2</v>
-      </c>
-      <c r="J44" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L44" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="80"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>5</v>
-      </c>
-      <c r="H45" s="3">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>2</v>
-      </c>
-      <c r="J45" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L45" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="M45" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="168.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="80"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="11">
-        <v>5</v>
-      </c>
-      <c r="G46" s="11">
-        <v>5</v>
-      </c>
-      <c r="H46" s="11">
-        <v>5</v>
-      </c>
-      <c r="I46" s="11">
-        <v>2</v>
-      </c>
-      <c r="J46" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L46" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M46" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="127.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="80">
-        <v>6</v>
-      </c>
-      <c r="B47" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="F47" s="12">
-        <v>5</v>
-      </c>
-      <c r="G47" s="12">
-        <v>5</v>
-      </c>
-      <c r="H47" s="12">
-        <v>5</v>
-      </c>
-      <c r="I47" s="12">
-        <v>2</v>
-      </c>
-      <c r="J47" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K47" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="L47" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="79.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="80"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F48" s="3">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>2</v>
-      </c>
-      <c r="J48" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="K48" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="L48" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="M48" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="187.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="80"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="11">
-        <v>5</v>
-      </c>
-      <c r="G49" s="11">
-        <v>5</v>
-      </c>
-      <c r="H49" s="11">
-        <v>5</v>
-      </c>
-      <c r="I49" s="11">
-        <v>2</v>
-      </c>
-      <c r="J49" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L49" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M49" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="80">
-        <v>7</v>
-      </c>
-      <c r="B50" s="79" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="6">
-        <v>5</v>
-      </c>
-      <c r="G50" s="6">
-        <v>5</v>
-      </c>
-      <c r="H50" s="6">
-        <v>4</v>
-      </c>
-      <c r="I50" s="12">
-        <v>2</v>
-      </c>
-      <c r="J50" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="K50" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="L50" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="80"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F51" s="3">
-        <v>5</v>
-      </c>
-      <c r="G51" s="3">
-        <v>5</v>
-      </c>
-      <c r="H51" s="3">
-        <v>5</v>
-      </c>
-      <c r="I51" s="3">
-        <v>2</v>
-      </c>
-      <c r="J51" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="80"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" s="11">
-        <v>5</v>
-      </c>
-      <c r="G52" s="11">
-        <v>5</v>
-      </c>
-      <c r="H52" s="11">
-        <v>5</v>
-      </c>
-      <c r="I52" s="11">
-        <v>2</v>
-      </c>
-      <c r="J52" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="K52" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L52" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M52" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="80">
-        <v>8</v>
-      </c>
-      <c r="B53" s="79" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E53" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="12">
-        <v>5</v>
-      </c>
-      <c r="G53" s="12">
-        <v>5</v>
-      </c>
-      <c r="H53" s="12">
-        <v>4</v>
-      </c>
-      <c r="I53" s="12">
-        <v>2</v>
-      </c>
-      <c r="J53" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="K53" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="L53" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="55.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="80"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="11">
-        <v>5</v>
-      </c>
-      <c r="G54" s="11">
-        <v>5</v>
-      </c>
-      <c r="H54" s="11">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2</v>
-      </c>
-      <c r="J54" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L54" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="M54" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="156" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="80"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F55" s="10">
-        <v>5</v>
-      </c>
-      <c r="G55" s="10">
-        <v>5</v>
-      </c>
-      <c r="H55" s="10">
-        <v>5</v>
-      </c>
-      <c r="I55" s="11">
-        <v>2</v>
-      </c>
-      <c r="J55" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L55" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M55" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="80">
-        <v>9</v>
-      </c>
-      <c r="B56" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F56" s="6">
-        <v>4</v>
-      </c>
-      <c r="G56" s="6">
-        <v>3</v>
-      </c>
-      <c r="H56" s="6">
-        <v>3</v>
-      </c>
-      <c r="I56" s="12">
-        <v>1</v>
-      </c>
-      <c r="J56" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="K56" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="L56" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="80"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F57" s="3">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
-        <v>5</v>
-      </c>
-      <c r="H57" s="3">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2</v>
-      </c>
-      <c r="J57" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L57" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="M57" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="80"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E58" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="F58" s="11">
-        <v>5</v>
-      </c>
-      <c r="G58" s="11">
-        <v>5</v>
-      </c>
-      <c r="H58" s="11">
-        <v>5</v>
-      </c>
-      <c r="I58" s="11">
-        <v>2</v>
-      </c>
-      <c r="J58" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="K58" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L58" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M58" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="132.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="80">
-        <v>10</v>
-      </c>
-      <c r="B59" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="F59" s="12">
-        <v>5</v>
-      </c>
-      <c r="G59" s="12">
-        <v>5</v>
-      </c>
-      <c r="H59" s="12">
-        <v>5</v>
-      </c>
-      <c r="I59" s="12">
-        <v>2</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="L59" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="M59" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="80"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="F60" s="11">
-        <v>5</v>
-      </c>
-      <c r="G60" s="11">
-        <v>5</v>
-      </c>
-      <c r="H60" s="11">
-        <v>5</v>
-      </c>
-      <c r="I60" s="13">
-        <v>2</v>
-      </c>
-      <c r="J60" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="L60" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="216.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="80"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="F61" s="10">
-        <v>5</v>
-      </c>
-      <c r="G61" s="10">
-        <v>5</v>
-      </c>
-      <c r="H61" s="10">
-        <v>5</v>
-      </c>
-      <c r="I61" s="10">
-        <v>2</v>
-      </c>
-      <c r="J61" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="K61" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="L61" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="M61" s="46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="35"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="73"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="73"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="73"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="73"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="73"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="73"/>
+      <c r="B42" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B55"/>
+  <mergeCells count="4">
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="5" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F3884D-1694-42F8-893E-475AD91816DC}">
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="54.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="44" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="31.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="63">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="47">
+        <v>5</v>
+      </c>
+      <c r="G4" s="47">
+        <v>5</v>
+      </c>
+      <c r="H4" s="47">
+        <v>4</v>
+      </c>
+      <c r="I4" s="47">
+        <v>2</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="63"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="43">
+        <v>5</v>
+      </c>
+      <c r="G5" s="43">
+        <v>5</v>
+      </c>
+      <c r="H5" s="43">
+        <v>5</v>
+      </c>
+      <c r="I5" s="43">
+        <v>2</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="167.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="63"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" s="45">
+        <v>4</v>
+      </c>
+      <c r="G6" s="45">
+        <v>4</v>
+      </c>
+      <c r="H6" s="45">
+        <v>4</v>
+      </c>
+      <c r="I6" s="45">
+        <v>1</v>
+      </c>
+      <c r="J6" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="124.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63">
+        <v>2</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="47">
+        <v>5</v>
+      </c>
+      <c r="G7" s="47">
+        <v>5</v>
+      </c>
+      <c r="H7" s="47">
+        <v>5</v>
+      </c>
+      <c r="I7" s="47">
+        <v>2</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="63"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="43">
+        <v>5</v>
+      </c>
+      <c r="G8" s="43">
+        <v>5</v>
+      </c>
+      <c r="H8" s="43">
+        <v>5</v>
+      </c>
+      <c r="I8" s="43">
+        <v>2</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="180" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="63"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="45">
+        <v>5</v>
+      </c>
+      <c r="G9" s="45">
+        <v>5</v>
+      </c>
+      <c r="H9" s="45">
+        <v>5</v>
+      </c>
+      <c r="I9" s="45">
+        <v>2</v>
+      </c>
+      <c r="J9" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="63">
+        <v>3</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="47">
+        <v>5</v>
+      </c>
+      <c r="G10" s="47">
+        <v>5</v>
+      </c>
+      <c r="H10" s="47">
+        <v>5</v>
+      </c>
+      <c r="I10" s="47">
+        <v>2</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="63"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="43">
+        <v>5</v>
+      </c>
+      <c r="G11" s="43">
+        <v>5</v>
+      </c>
+      <c r="H11" s="43">
+        <v>5</v>
+      </c>
+      <c r="I11" s="43">
+        <v>2</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="223.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="63"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="45">
+        <v>5</v>
+      </c>
+      <c r="G12" s="45">
+        <v>5</v>
+      </c>
+      <c r="H12" s="45">
+        <v>5</v>
+      </c>
+      <c r="I12" s="45">
+        <v>2</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="63">
+        <v>4</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="58">
+        <v>5</v>
+      </c>
+      <c r="G13" s="58">
+        <v>5</v>
+      </c>
+      <c r="H13" s="58">
+        <v>5</v>
+      </c>
+      <c r="I13" s="43">
+        <v>2</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="123.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="63"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="43">
+        <v>5</v>
+      </c>
+      <c r="G14" s="43">
+        <v>5</v>
+      </c>
+      <c r="H14" s="43">
+        <v>5</v>
+      </c>
+      <c r="I14" s="43">
+        <v>2</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L14" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="63"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="59">
+        <v>5</v>
+      </c>
+      <c r="G15" s="59">
+        <v>5</v>
+      </c>
+      <c r="H15" s="59">
+        <v>5</v>
+      </c>
+      <c r="I15" s="60">
+        <v>2</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="63">
+        <v>5</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="55">
+        <v>5</v>
+      </c>
+      <c r="G16" s="55">
+        <v>5</v>
+      </c>
+      <c r="H16" s="55">
+        <v>5</v>
+      </c>
+      <c r="I16" s="61">
+        <v>2</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="63"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="43">
+        <v>5</v>
+      </c>
+      <c r="G17" s="43">
+        <v>5</v>
+      </c>
+      <c r="H17" s="43">
+        <v>5</v>
+      </c>
+      <c r="I17" s="43">
+        <v>2</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="M17" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="169.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="63"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="58">
+        <v>5</v>
+      </c>
+      <c r="G18" s="58">
+        <v>5</v>
+      </c>
+      <c r="H18" s="58">
+        <v>5</v>
+      </c>
+      <c r="I18" s="58">
+        <v>2</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="M18" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="63">
+        <v>6</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="55">
+        <v>5</v>
+      </c>
+      <c r="G19" s="55">
+        <v>5</v>
+      </c>
+      <c r="H19" s="55">
+        <v>5</v>
+      </c>
+      <c r="I19" s="55">
+        <v>2</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="M19" s="47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="63"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="43">
+        <v>5</v>
+      </c>
+      <c r="G20" s="43">
+        <v>5</v>
+      </c>
+      <c r="H20" s="43">
+        <v>5</v>
+      </c>
+      <c r="I20" s="43">
+        <v>2</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="K20" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="M20" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="63"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="58">
+        <v>5</v>
+      </c>
+      <c r="G21" s="58">
+        <v>5</v>
+      </c>
+      <c r="H21" s="58">
+        <v>5</v>
+      </c>
+      <c r="I21" s="58">
+        <v>2</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="M21" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="63">
+        <v>7</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="47">
+        <v>5</v>
+      </c>
+      <c r="G22" s="47">
+        <v>5</v>
+      </c>
+      <c r="H22" s="47">
+        <v>4</v>
+      </c>
+      <c r="I22" s="55">
+        <v>2</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" s="47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="63"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="43">
+        <v>5</v>
+      </c>
+      <c r="G23" s="43">
+        <v>5</v>
+      </c>
+      <c r="H23" s="43">
+        <v>5</v>
+      </c>
+      <c r="I23" s="43">
+        <v>2</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="M23" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="63"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="58">
+        <v>5</v>
+      </c>
+      <c r="G24" s="58">
+        <v>5</v>
+      </c>
+      <c r="H24" s="58">
+        <v>5</v>
+      </c>
+      <c r="I24" s="58">
+        <v>2</v>
+      </c>
+      <c r="J24" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L24" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="86.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="63">
+        <v>8</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="55">
+        <v>5</v>
+      </c>
+      <c r="G25" s="55">
+        <v>5</v>
+      </c>
+      <c r="H25" s="55">
+        <v>4</v>
+      </c>
+      <c r="I25" s="55">
+        <v>2</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="63"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="58">
+        <v>5</v>
+      </c>
+      <c r="G26" s="58">
+        <v>5</v>
+      </c>
+      <c r="H26" s="58">
+        <v>5</v>
+      </c>
+      <c r="I26" s="43">
+        <v>2</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="M26" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="63"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="60">
+        <v>5</v>
+      </c>
+      <c r="G27" s="60">
+        <v>5</v>
+      </c>
+      <c r="H27" s="60">
+        <v>5</v>
+      </c>
+      <c r="I27" s="58">
+        <v>2</v>
+      </c>
+      <c r="J27" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="L27" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="M27" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="63">
+        <v>9</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="47">
+        <v>4</v>
+      </c>
+      <c r="G28" s="47">
+        <v>3</v>
+      </c>
+      <c r="H28" s="47">
+        <v>3</v>
+      </c>
+      <c r="I28" s="55">
+        <v>1</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="M28" s="47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="63"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="43">
+        <v>5</v>
+      </c>
+      <c r="G29" s="43">
+        <v>5</v>
+      </c>
+      <c r="H29" s="43">
+        <v>5</v>
+      </c>
+      <c r="I29" s="43">
+        <v>2</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="M29" s="48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="161.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="63"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="58">
+        <v>5</v>
+      </c>
+      <c r="G30" s="58">
+        <v>5</v>
+      </c>
+      <c r="H30" s="58">
+        <v>5</v>
+      </c>
+      <c r="I30" s="58">
+        <v>2</v>
+      </c>
+      <c r="J30" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L30" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="M30" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="63">
+        <v>10</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="55">
+        <v>5</v>
+      </c>
+      <c r="G31" s="55">
+        <v>5</v>
+      </c>
+      <c r="H31" s="55">
+        <v>5</v>
+      </c>
+      <c r="I31" s="55">
+        <v>2</v>
+      </c>
+      <c r="J31" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L31" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" s="47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="63"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="58">
+        <v>5</v>
+      </c>
+      <c r="G32" s="58">
+        <v>5</v>
+      </c>
+      <c r="H32" s="58">
+        <v>5</v>
+      </c>
+      <c r="I32" s="59">
+        <v>2</v>
+      </c>
+      <c r="J32" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="K32" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="L32" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="M32" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="63"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="60">
+        <v>5</v>
+      </c>
+      <c r="G33" s="60">
+        <v>5</v>
+      </c>
+      <c r="H33" s="60">
+        <v>5</v>
+      </c>
+      <c r="I33" s="60">
+        <v>2</v>
+      </c>
+      <c r="J33" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="M33" s="51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C16:C18"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="4" manualBreakCount="4">
+    <brk id="9" max="16383" man="1"/>
+    <brk id="15" max="16383" man="1"/>
+    <brk id="21" max="12" man="1"/>
+    <brk id="27" max="12" man="1"/>
+  </rowBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3A9988-5C74-4E3E-9856-B73B58DE8D2B}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
@@ -6835,176 +7036,176 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="16">
+        <f>AVERAGE('AI response evaluation '!F4,'AI response evaluation '!F7,'AI response evaluation '!F10,'AI response evaluation '!F13,'AI response evaluation '!F17,'AI response evaluation '!F19,'AI response evaluation '!F22,'AI response evaluation '!F25,'AI response evaluation '!F28,'AI response evaluation '!F31)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C4" s="16">
+        <f>AVERAGE('AI response evaluation '!G4,'AI response evaluation '!G7,'AI response evaluation '!G10,'AI response evaluation '!G13,'AI response evaluation '!G17,'AI response evaluation '!G19,'AI response evaluation '!G22,'AI response evaluation '!G25,'AI response evaluation '!G28,'AI response evaluation '!G31)</f>
+        <v>4.8</v>
+      </c>
+      <c r="D4" s="16">
+        <f>AVERAGE('AI response evaluation '!H4,'AI response evaluation '!H7,'AI response evaluation '!H10,'AI response evaluation '!H13,'AI response evaluation '!H17,'AI response evaluation '!H19,'AI response evaluation '!H22,'AI response evaluation '!H25,'AI response evaluation '!H28,'AI response evaluation '!H31)</f>
+        <v>4.5</v>
+      </c>
+      <c r="E4" s="16">
+        <f>AVERAGE('AI response evaluation '!I4,'AI response evaluation '!I7,'AI response evaluation '!I10,'AI response evaluation '!I13,'AI response evaluation '!I17,'AI response evaluation '!I19,'AI response evaluation '!I22,'AI response evaluation '!I25,'AI response evaluation '!I28,'AI response evaluation '!I31)</f>
+        <v>1.9</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <f>AVERAGE('AI response evaluation '!F5,'AI response evaluation '!F8,'AI response evaluation '!F11,'AI response evaluation '!F14,'AI response evaluation '!F18,'AI response evaluation '!F20,'AI response evaluation '!F23,'AI response evaluation '!F26,'AI response evaluation '!F29,'AI response evaluation '!F32)</f>
+        <v>5</v>
+      </c>
+      <c r="C5" s="11">
+        <f>AVERAGE('AI response evaluation '!G5,'AI response evaluation '!G8,'AI response evaluation '!G11,'AI response evaluation '!G14,'AI response evaluation '!G18,'AI response evaluation '!G20,'AI response evaluation '!G23,'AI response evaluation '!G26,'AI response evaluation '!G29,'AI response evaluation '!G32)</f>
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <f>AVERAGE('AI response evaluation '!H5,'AI response evaluation '!H8,'AI response evaluation '!H11,'AI response evaluation '!H14,'AI response evaluation '!H18,'AI response evaluation '!H20,'AI response evaluation '!H23,'AI response evaluation '!H26,'AI response evaluation '!H29,'AI response evaluation '!H32)</f>
+        <v>5</v>
+      </c>
+      <c r="E5" s="11">
+        <f>AVERAGE('AI response evaluation '!I5,'AI response evaluation '!I8,'AI response evaluation '!I11,'AI response evaluation '!I14,'AI response evaluation '!I18,'AI response evaluation '!I20,'AI response evaluation '!I23,'AI response evaluation '!I26,'AI response evaluation '!I29,'AI response evaluation '!I32)</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="14">
+        <f>AVERAGE('AI response evaluation '!F6,'AI response evaluation '!F9,'AI response evaluation '!F12,'AI response evaluation '!F15,'AI response evaluation '!F19,'AI response evaluation '!F21,'AI response evaluation '!F24,'AI response evaluation '!F27,'AI response evaluation '!F30,'AI response evaluation '!F33)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C6" s="14">
+        <f>AVERAGE('AI response evaluation '!G6,'AI response evaluation '!G9,'AI response evaluation '!G12,'AI response evaluation '!G15,'AI response evaluation '!G19,'AI response evaluation '!G21,'AI response evaluation '!G24,'AI response evaluation '!G27,'AI response evaluation '!G30,'AI response evaluation '!G33)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D6" s="14">
+        <f>AVERAGE('AI response evaluation '!H6,'AI response evaluation '!H9,'AI response evaluation '!H12,'AI response evaluation '!H15,'AI response evaluation '!H19,'AI response evaluation '!H21,'AI response evaluation '!H24,'AI response evaluation '!H27,'AI response evaluation '!H30,'AI response evaluation '!H33)</f>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E6" s="14">
+        <f>AVERAGE('AI response evaluation '!I6,'AI response evaluation '!I9,'AI response evaluation '!I12,'AI response evaluation '!I15,'AI response evaluation '!I19,'AI response evaluation '!I21,'AI response evaluation '!I24,'AI response evaluation '!I27,'AI response evaluation '!I30,'AI response evaluation '!I33)</f>
+        <v>1.9</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="64" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="4">
+        <f>COUNTIFS('AI response evaluation '!D4:D33, "ChatGPT-5", 'AI response evaluation '!M4:M33, "No error")</f>
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <f>COUNTIFS('AI response evaluation '!D4:D33, "ChatGPT-5", 'AI response evaluation '!M4:M33, "Oversimplification")</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="31">
+        <f>COUNTIFS('AI response evaluation '!D4:D33, "ChatGPT-5", 'AI response evaluation '!M4:M33, "Misleading phrasing")</f>
         <v>0</v>
       </c>
-      <c r="B3" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="42">
-        <f>AVERAGE('AI response evaluation '!F32,'AI response evaluation '!F35,'AI response evaluation '!F38,'AI response evaluation '!F41,'AI response evaluation '!F45,'AI response evaluation '!F47,'AI response evaluation '!F50,'AI response evaluation '!F53,'AI response evaluation '!F56,'AI response evaluation '!F59)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C4" s="42">
-        <f>AVERAGE('AI response evaluation '!G32,'AI response evaluation '!G35,'AI response evaluation '!G38,'AI response evaluation '!G41,'AI response evaluation '!G45,'AI response evaluation '!G47,'AI response evaluation '!G50,'AI response evaluation '!G53,'AI response evaluation '!G56,'AI response evaluation '!G59)</f>
-        <v>4.8</v>
-      </c>
-      <c r="D4" s="42">
-        <f>AVERAGE('AI response evaluation '!H32,'AI response evaluation '!H35,'AI response evaluation '!H38,'AI response evaluation '!H41,'AI response evaluation '!H45,'AI response evaluation '!H47,'AI response evaluation '!H50,'AI response evaluation '!H53,'AI response evaluation '!H56,'AI response evaluation '!H59)</f>
-        <v>4.5</v>
-      </c>
-      <c r="E4" s="42">
-        <f>AVERAGE('AI response evaluation '!I32,'AI response evaluation '!I35,'AI response evaluation '!I38,'AI response evaluation '!I41,'AI response evaluation '!I45,'AI response evaluation '!I47,'AI response evaluation '!I50,'AI response evaluation '!I53,'AI response evaluation '!I56,'AI response evaluation '!I59)</f>
-        <v>1.9</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37">
-        <f>AVERAGE('AI response evaluation '!F33,'AI response evaluation '!F36,'AI response evaluation '!F39,'AI response evaluation '!F42,'AI response evaluation '!F46,'AI response evaluation '!F48,'AI response evaluation '!F51,'AI response evaluation '!F54,'AI response evaluation '!F57,'AI response evaluation '!F60)</f>
-        <v>5</v>
-      </c>
-      <c r="C5" s="37">
-        <f>AVERAGE('AI response evaluation '!G33,'AI response evaluation '!G36,'AI response evaluation '!G39,'AI response evaluation '!G42,'AI response evaluation '!G46,'AI response evaluation '!G48,'AI response evaluation '!G51,'AI response evaluation '!G54,'AI response evaluation '!G57,'AI response evaluation '!G60)</f>
-        <v>5</v>
-      </c>
-      <c r="D5" s="37">
-        <f>AVERAGE('AI response evaluation '!H33,'AI response evaluation '!H36,'AI response evaluation '!H39,'AI response evaluation '!H42,'AI response evaluation '!H46,'AI response evaluation '!H48,'AI response evaluation '!H51,'AI response evaluation '!H54,'AI response evaluation '!H57,'AI response evaluation '!H60)</f>
-        <v>5</v>
-      </c>
-      <c r="E5" s="37">
-        <f>AVERAGE('AI response evaluation '!I33,'AI response evaluation '!I36,'AI response evaluation '!I39,'AI response evaluation '!I42,'AI response evaluation '!I46,'AI response evaluation '!I48,'AI response evaluation '!I51,'AI response evaluation '!I54,'AI response evaluation '!I57,'AI response evaluation '!I60)</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="54" t="s">
+      <c r="B11" s="2">
+        <f>COUNTIFS('AI response evaluation '!D4:D33, "Claude", 'AI response evaluation '!M4:M33, "No error")</f>
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <f>COUNTIFS('AI response evaluation '!D4:D33, "Claude", 'AI response evaluation '!M4:M33, "Oversimplification")</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <f>COUNTIFS('AI response evaluation '!D4:D33, "Claude", 'AI response evaluation '!M4:M33, "Misleading phrasing")</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="40">
-        <f>AVERAGE('AI response evaluation '!F34,'AI response evaluation '!F37,'AI response evaluation '!F40,'AI response evaluation '!F43,'AI response evaluation '!F47,'AI response evaluation '!F49,'AI response evaluation '!F52,'AI response evaluation '!F55,'AI response evaluation '!F58,'AI response evaluation '!F61)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C6" s="40">
-        <f>AVERAGE('AI response evaluation '!G34,'AI response evaluation '!G37,'AI response evaluation '!G40,'AI response evaluation '!G43,'AI response evaluation '!G47,'AI response evaluation '!G49,'AI response evaluation '!G52,'AI response evaluation '!G55,'AI response evaluation '!G58,'AI response evaluation '!G61)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D6" s="40">
-        <f>AVERAGE('AI response evaluation '!H34,'AI response evaluation '!H37,'AI response evaluation '!H40,'AI response evaluation '!H43,'AI response evaluation '!H47,'AI response evaluation '!H49,'AI response evaluation '!H52,'AI response evaluation '!H55,'AI response evaluation '!H58,'AI response evaluation '!H61)</f>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E6" s="40">
-        <f>AVERAGE('AI response evaluation '!I34,'AI response evaluation '!I37,'AI response evaluation '!I40,'AI response evaluation '!I43,'AI response evaluation '!I47,'AI response evaluation '!I49,'AI response evaluation '!I52,'AI response evaluation '!I55,'AI response evaluation '!I58,'AI response evaluation '!I61)</f>
-        <v>1.9</v>
-      </c>
-      <c r="F6" s="41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="47"/>
-    </row>
-    <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="48"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="12">
-        <f>COUNTIFS('AI response evaluation '!D32:D61, "ChatGPT-5", 'AI response evaluation '!M32:M61, "No error")</f>
+      <c r="B12" s="3">
+        <f>COUNTIFS('AI response evaluation '!D4:D33, "Copilot", 'AI response evaluation '!M4:M33, "No error")</f>
         <v>9</v>
       </c>
-      <c r="C10" s="12">
-        <f>COUNTIFS('AI response evaluation '!D32:D61, "ChatGPT-5", 'AI response evaluation '!M32:M61, "Oversimplification")</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="60">
-        <f>COUNTIFS('AI response evaluation '!D32:D61, "ChatGPT-5", 'AI response evaluation '!M32:M61, "Misleading phrasing")</f>
+      <c r="C12" s="3">
+        <f>COUNTIFS('AI response evaluation '!D4:D33, "Copilot", 'AI response evaluation '!M4:M33, "Oversimplification")</f>
         <v>0</v>
       </c>
-      <c r="E10" s="48"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3">
-        <f>COUNTIFS('AI response evaluation '!D32:D61, "Claude", 'AI response evaluation '!M32:M61, "No error")</f>
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
-        <f>COUNTIFS('AI response evaluation '!D32:D61, "Claude", 'AI response evaluation '!M32:M61, "Oversimplification")</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="55">
-        <f>COUNTIFS('AI response evaluation '!D32:D61, "Claude", 'AI response evaluation '!M32:M61, "Misleading phrasing")</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="48"/>
-    </row>
-    <row r="12" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="10">
-        <f>COUNTIFS('AI response evaluation '!D32:D61, "Copilot", 'AI response evaluation '!M32:M61, "No error")</f>
-        <v>9</v>
-      </c>
-      <c r="C12" s="10">
-        <f>COUNTIFS('AI response evaluation '!D32:D61, "Copilot", 'AI response evaluation '!M32:M61, "Oversimplification")</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="56">
-        <f>COUNTIFS('AI response evaluation '!D32:D61, "Copilot", 'AI response evaluation '!M32:M61, "Misleading phrasing")</f>
+      <c r="D12" s="27">
+        <f>COUNTIFS('AI response evaluation '!D4:D33, "Copilot", 'AI response evaluation '!M4:M33, "Misleading phrasing")</f>
         <v>1</v>
       </c>
     </row>
@@ -7013,73 +7214,75 @@
     <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C6A005-DE7F-426A-9163-9BC188128668}">
   <dimension ref="A16:A36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
+      <c r="A36" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AI response analysis.xlsx
+++ b/AI response analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEENU\Git\GitHubRepository\Cell-Biology-Misconceptions-Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50FB14-FCE9-427A-8180-34982531B554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E727D1-DF87-4818-B143-5B3F1ECCB834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC19697D-DDCA-44B7-A586-36CE1978274E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="12204" xr2:uid="{CC19697D-DDCA-44B7-A586-36CE1978274E}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Overview &amp; Scoring Rubr" sheetId="4" r:id="rId1"/>
@@ -1414,59 +1414,59 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5453,7 +5453,7 @@
       <c r="A3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="69" t="s">
         <v>157</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -5462,7 +5462,7 @@
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="69" t="s">
         <v>159</v>
       </c>
       <c r="B5" s="19" t="s">
@@ -5471,7 +5471,7 @@
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="69" t="s">
         <v>161</v>
       </c>
       <c r="B6" s="19" t="s">
@@ -5480,7 +5480,7 @@
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="69" t="s">
         <v>163</v>
       </c>
       <c r="B7" s="19" t="s">
@@ -5498,27 +5498,27 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="75" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="75"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="73"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
     </row>
     <row r="11" spans="1:12" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
@@ -5538,7 +5538,7 @@
       <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="69" t="s">
         <v>175</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -5548,7 +5548,7 @@
       <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="69" t="s">
         <v>176</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -5558,7 +5558,7 @@
       <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="69" t="s">
         <v>177</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -5568,13 +5568,13 @@
       <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="69" t="s">
         <v>173</v>
       </c>
       <c r="B17" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="74"/>
+      <c r="C17" s="75"/>
       <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5583,7 +5583,7 @@
       <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="65" t="s">
         <v>136</v>
       </c>
       <c r="B19" s="34"/>
@@ -5591,81 +5591,81 @@
       <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="62" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="62" t="s">
         <v>149</v>
       </c>
       <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="75">
+      <c r="A21" s="71">
         <v>1</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="67" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="67" t="s">
         <v>150</v>
       </c>
       <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75">
+      <c r="A22" s="71">
         <v>2</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="67" t="s">
         <v>151</v>
       </c>
       <c r="D22" s="34"/>
     </row>
     <row r="23" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75">
+      <c r="A23" s="71">
         <v>3</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="67" t="s">
         <v>147</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="67" t="s">
         <v>152</v>
       </c>
       <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75">
+      <c r="A24" s="71">
         <v>4</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="67" t="s">
         <v>153</v>
       </c>
       <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="75">
-        <v>5</v>
-      </c>
-      <c r="B25" s="71" t="s">
+      <c r="A25" s="71">
+        <v>5</v>
+      </c>
+      <c r="B25" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="67" t="s">
         <v>154</v>
       </c>
       <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
       <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -5675,7 +5675,7 @@
       <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="66" t="s">
         <v>142</v>
       </c>
       <c r="B28" s="34"/>
@@ -5683,40 +5683,40 @@
       <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="63" t="s">
         <v>138</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66">
+      <c r="A30" s="63">
         <v>2</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="68" t="s">
         <v>145</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="68">
+      <c r="A31" s="64">
         <v>1</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="68" t="s">
         <v>155</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="66">
+      <c r="A32" s="63">
         <v>0</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="68" t="s">
         <v>156</v>
       </c>
       <c r="C32" s="34"/>
@@ -5729,10 +5729,10 @@
       <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
@@ -5741,32 +5741,32 @@
       <c r="B36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="73"/>
+      <c r="A37" s="69"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="73"/>
+      <c r="A38" s="69"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="73"/>
+      <c r="A39" s="69"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="73"/>
+      <c r="A40" s="69"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="73"/>
+      <c r="A41" s="69"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="73"/>
+      <c r="A42" s="69"/>
       <c r="B42" s="19"/>
     </row>
   </sheetData>
@@ -5859,13 +5859,13 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="63">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="78" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="54" t="s">
@@ -5900,9 +5900,9 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="56" t="s">
         <v>4</v>
       </c>
@@ -5935,9 +5935,9 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="167.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="63"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="57" t="s">
         <v>46</v>
       </c>
@@ -5970,13 +5970,13 @@
       </c>
     </row>
     <row r="7" spans="1:13" ht="124.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="63">
+      <c r="A7" s="77">
         <v>2</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="78" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="54" t="s">
@@ -6011,9 +6011,9 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="63"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="56" t="s">
         <v>4</v>
       </c>
@@ -6046,9 +6046,9 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="180" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="63"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="57" t="s">
         <v>46</v>
       </c>
@@ -6081,13 +6081,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="63">
+      <c r="A10" s="77">
         <v>3</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="78" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="54" t="s">
@@ -6122,9 +6122,9 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="63"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="56" t="s">
         <v>4</v>
       </c>
@@ -6157,9 +6157,9 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="223.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="63"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="57" t="s">
         <v>46</v>
       </c>
@@ -6192,13 +6192,13 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="63">
+      <c r="A13" s="77">
         <v>4</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="54" t="s">
@@ -6233,9 +6233,9 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="123.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="63"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="56" t="s">
         <v>4</v>
       </c>
@@ -6268,9 +6268,9 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="63"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="57" t="s">
         <v>46</v>
       </c>
@@ -6303,13 +6303,13 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="63">
-        <v>5</v>
-      </c>
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="77">
+        <v>5</v>
+      </c>
+      <c r="B16" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="78" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="54" t="s">
@@ -6344,9 +6344,9 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="63"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="56" t="s">
         <v>4</v>
       </c>
@@ -6379,9 +6379,9 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="169.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="63"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="57" t="s">
         <v>46</v>
       </c>
@@ -6414,13 +6414,13 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="63">
+      <c r="A19" s="77">
         <v>6</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="78" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="54" t="s">
@@ -6455,9 +6455,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="63"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="56" t="s">
         <v>4</v>
       </c>
@@ -6490,9 +6490,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="63"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="57" t="s">
         <v>46</v>
       </c>
@@ -6525,13 +6525,13 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="63">
+      <c r="A22" s="77">
         <v>7</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="78" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="54" t="s">
@@ -6566,9 +6566,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="63"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="56" t="s">
         <v>4</v>
       </c>
@@ -6601,9 +6601,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="63"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="57" t="s">
         <v>46</v>
       </c>
@@ -6636,13 +6636,13 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="86.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="63">
+      <c r="A25" s="77">
         <v>8</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="78" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="54" t="s">
@@ -6677,9 +6677,9 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="63"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="56" t="s">
         <v>4</v>
       </c>
@@ -6712,9 +6712,9 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="63"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="57" t="s">
         <v>46</v>
       </c>
@@ -6747,13 +6747,13 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="63">
+      <c r="A28" s="77">
         <v>9</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="78" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="54" t="s">
@@ -6788,9 +6788,9 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="63"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="56" t="s">
         <v>4</v>
       </c>
@@ -6823,9 +6823,9 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="161.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="63"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="57" t="s">
         <v>46</v>
       </c>
@@ -6858,13 +6858,13 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="63">
+      <c r="A31" s="77">
         <v>10</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="54" t="s">
@@ -6899,9 +6899,9 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="63"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="56" t="s">
         <v>4</v>
       </c>
@@ -6934,9 +6934,9 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="63"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="57" t="s">
         <v>46</v>
       </c>
@@ -6973,15 +6973,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A4:A6"/>
@@ -6998,11 +6994,15 @@
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -7133,12 +7133,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">

--- a/AI response analysis.xlsx
+++ b/AI response analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEENU\Git\GitHubRepository\Cell-Biology-Misconceptions-Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E727D1-DF87-4818-B143-5B3F1ECCB834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D2B54-6EAB-4447-A822-4E296ABCE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="12204" xr2:uid="{CC19697D-DDCA-44B7-A586-36CE1978274E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC19697D-DDCA-44B7-A586-36CE1978274E}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Overview &amp; Scoring Rubr" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'AI response evaluation '!$A$1:$M$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Overview &amp; Scoring Rubr'!$A$1:$E$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Overview &amp; Scoring Rubr'!$A$1:$E$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
   <si>
     <t>AI Model</t>
   </si>
@@ -835,6 +835,21 @@
   </si>
   <si>
     <t>Completeness:</t>
+  </si>
+  <si>
+    <t>Correct, clear and complete response</t>
+  </si>
+  <si>
+    <t>Correct idea but lacking key detail or nuance</t>
+  </si>
+  <si>
+    <t>Wording could unintentionally support the misconception</t>
+  </si>
+  <si>
+    <t>Error Type Definitions</t>
+  </si>
+  <si>
+    <t>Used to classify issues observed in responses:</t>
   </si>
 </sst>
 </file>
@@ -1450,9 +1465,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1460,13 +1472,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5416,10 +5431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5DCE04-2A72-4EFE-A565-1DDF7A460F08}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5427,8 +5442,8 @@
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.21875" customWidth="1"/>
@@ -5501,19 +5516,19 @@
       <c r="A8" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="75"/>
+      <c r="C8" s="74"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="75"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69"/>
@@ -5571,10 +5586,10 @@
       <c r="A17" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5728,36 +5743,56 @@
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
     </row>
-    <row r="34" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="74"/>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="35"/>
+      <c r="B34" s="34"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="69"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="69"/>
-      <c r="B39" s="19"/>
+      <c r="A35" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+    </row>
+    <row r="37" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="68" t="s">
+        <v>179</v>
+      </c>
       <c r="C39" s="19"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="69"/>
-      <c r="B40" s="19"/>
+    <row r="40" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="68" t="s">
+        <v>180</v>
+      </c>
       <c r="C40" s="19"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5768,16 +5803,25 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="69"/>
       <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="69"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="69"/>
+      <c r="B44" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A34:D34"/>
+  <mergeCells count="3">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="5" max="1048575" man="1"/>
   </colBreaks>
@@ -5862,10 +5906,10 @@
       <c r="A4" s="77">
         <v>1</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="76" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="54" t="s">
@@ -5901,8 +5945,8 @@
     </row>
     <row r="5" spans="1:13" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
       <c r="D5" s="56" t="s">
         <v>4</v>
       </c>
@@ -5936,8 +5980,8 @@
     </row>
     <row r="6" spans="1:13" ht="167.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="57" t="s">
         <v>46</v>
       </c>
@@ -5973,10 +6017,10 @@
       <c r="A7" s="77">
         <v>2</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="76" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="54" t="s">
@@ -6012,8 +6056,8 @@
     </row>
     <row r="8" spans="1:13" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="56" t="s">
         <v>4</v>
       </c>
@@ -6047,8 +6091,8 @@
     </row>
     <row r="9" spans="1:13" ht="180" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="57" t="s">
         <v>46</v>
       </c>
@@ -6084,10 +6128,10 @@
       <c r="A10" s="77">
         <v>3</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="76" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="54" t="s">
@@ -6123,8 +6167,8 @@
     </row>
     <row r="11" spans="1:13" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="56" t="s">
         <v>4</v>
       </c>
@@ -6158,8 +6202,8 @@
     </row>
     <row r="12" spans="1:13" ht="223.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="57" t="s">
         <v>46</v>
       </c>
@@ -6195,10 +6239,10 @@
       <c r="A13" s="77">
         <v>4</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="76" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="54" t="s">
@@ -6234,8 +6278,8 @@
     </row>
     <row r="14" spans="1:13" ht="123.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="56" t="s">
         <v>4</v>
       </c>
@@ -6269,8 +6313,8 @@
     </row>
     <row r="15" spans="1:13" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="57" t="s">
         <v>46</v>
       </c>
@@ -6306,10 +6350,10 @@
       <c r="A16" s="77">
         <v>5</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="76" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="54" t="s">
@@ -6345,8 +6389,8 @@
     </row>
     <row r="17" spans="1:13" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="56" t="s">
         <v>4</v>
       </c>
@@ -6380,8 +6424,8 @@
     </row>
     <row r="18" spans="1:13" ht="169.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="57" t="s">
         <v>46</v>
       </c>
@@ -6417,10 +6461,10 @@
       <c r="A19" s="77">
         <v>6</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="76" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="54" t="s">
@@ -6456,8 +6500,8 @@
     </row>
     <row r="20" spans="1:13" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="56" t="s">
         <v>4</v>
       </c>
@@ -6491,8 +6535,8 @@
     </row>
     <row r="21" spans="1:13" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="57" t="s">
         <v>46</v>
       </c>
@@ -6528,10 +6572,10 @@
       <c r="A22" s="77">
         <v>7</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="54" t="s">
@@ -6567,8 +6611,8 @@
     </row>
     <row r="23" spans="1:13" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="56" t="s">
         <v>4</v>
       </c>
@@ -6602,8 +6646,8 @@
     </row>
     <row r="24" spans="1:13" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="57" t="s">
         <v>46</v>
       </c>
@@ -6639,10 +6683,10 @@
       <c r="A25" s="77">
         <v>8</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="76" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="54" t="s">
@@ -6678,8 +6722,8 @@
     </row>
     <row r="26" spans="1:13" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="56" t="s">
         <v>4</v>
       </c>
@@ -6713,8 +6757,8 @@
     </row>
     <row r="27" spans="1:13" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="57" t="s">
         <v>46</v>
       </c>
@@ -6750,10 +6794,10 @@
       <c r="A28" s="77">
         <v>9</v>
       </c>
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="76" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="54" t="s">
@@ -6789,8 +6833,8 @@
     </row>
     <row r="29" spans="1:13" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="56" t="s">
         <v>4</v>
       </c>
@@ -6824,8 +6868,8 @@
     </row>
     <row r="30" spans="1:13" ht="161.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="77"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="57" t="s">
         <v>46</v>
       </c>
@@ -6861,10 +6905,10 @@
       <c r="A31" s="77">
         <v>10</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="76" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="54" t="s">
@@ -6900,8 +6944,8 @@
     </row>
     <row r="32" spans="1:13" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="77"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="56" t="s">
         <v>4</v>
       </c>
@@ -6935,8 +6979,8 @@
     </row>
     <row r="33" spans="1:13" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="57" t="s">
         <v>46</v>
       </c>
@@ -6973,11 +7017,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A4:A6"/>
@@ -6994,15 +7042,11 @@
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -7133,12 +7177,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">

--- a/AI response analysis.xlsx
+++ b/AI response analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MEENU\Git\GitHubRepository\Cell-Biology-Misconceptions-Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7D2B54-6EAB-4447-A822-4E296ABCE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F641A2D3-4C86-4EB0-B7B7-DFD1A78ACB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC19697D-DDCA-44B7-A586-36CE1978274E}"/>
   </bookViews>
@@ -306,11 +306,6 @@
     <t xml:space="preserve">Correct and thorough explanation with extra details. More than required for a short answer, but excellent if learner wants deeper understanding. </t>
   </si>
   <si>
-    <t>Correct answer; short and  clear.     (Model could also mention size for example to make it more clear and precise. For example: Human cell: ~10–100 micrometers in diameter.
-- DNA double helix: ~2 nanometers wide.
-- That’s a difference of thousands of times — the cell is vastly larger than the DNA inside it.)</t>
-  </si>
-  <si>
     <t>Most balanced answer; correct and complete (Model could add the comparison of size of a cell and its DNA to make it more clear.)</t>
   </si>
   <si>
@@ -386,9 +381,6 @@
   </si>
   <si>
     <t xml:space="preserve">Scoring Rubric: </t>
-  </si>
-  <si>
-    <t>No correction needed. (Optional: add numeric comparison: cell ~10–100 µm vs DNA ~2 m when stretched for clarity.)</t>
   </si>
   <si>
     <t>No correction needed.</t>
@@ -850,6 +842,12 @@
   </si>
   <si>
     <t>Used to classify issues observed in responses:</t>
+  </si>
+  <si>
+    <t>Correct answer; short and  clear. (Model could add the comparison of size of a cell and its DNA to make it more clear and precise.)</t>
+  </si>
+  <si>
+    <t>No correction needed. (Optional: add numeric comparison:  the comparison of size of a cell and its DNA when stretched for clarity.)</t>
   </si>
 </sst>
 </file>
@@ -1465,6 +1463,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1472,16 +1473,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5434,7 +5432,7 @@
   <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5456,12 +5454,12 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5469,37 +5467,37 @@
     </row>
     <row r="4" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="6"/>
@@ -5514,21 +5512,21 @@
     </row>
     <row r="8" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="74"/>
+        <v>163</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="75"/>
     </row>
     <row r="9" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" s="74"/>
+        <v>165</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="75"/>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="69"/>
@@ -5540,7 +5538,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -5554,42 +5552,42 @@
     </row>
     <row r="14" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="69" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="74"/>
+        <v>171</v>
+      </c>
+      <c r="B17" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="75"/>
       <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5599,7 +5597,7 @@
     </row>
     <row r="19" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B19" s="34"/>
       <c r="C19" s="34"/>
@@ -5607,13 +5605,13 @@
     </row>
     <row r="20" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B20" s="62" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D20" s="34"/>
     </row>
@@ -5622,10 +5620,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C21" s="67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D21" s="34"/>
     </row>
@@ -5634,10 +5632,10 @@
         <v>2</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D22" s="34"/>
     </row>
@@ -5646,10 +5644,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D23" s="34"/>
     </row>
@@ -5658,10 +5656,10 @@
         <v>4</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D24" s="34"/>
     </row>
@@ -5670,10 +5668,10 @@
         <v>5</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D25" s="34"/>
     </row>
@@ -5691,7 +5689,7 @@
     </row>
     <row r="28" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
@@ -5699,10 +5697,10 @@
     </row>
     <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
@@ -5712,7 +5710,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
@@ -5722,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -5732,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -5750,48 +5748,48 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>182</v>
-      </c>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
+        <v>180</v>
+      </c>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
     </row>
     <row r="37" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C40" s="19"/>
     </row>
@@ -5832,8 +5830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F3884D-1694-42F8-893E-475AD91816DC}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5855,7 +5853,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -5878,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="38" t="s">
         <v>47</v>
@@ -5899,21 +5897,21 @@
         <v>3</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="77">
         <v>1</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="76" t="s">
-        <v>87</v>
+      <c r="C4" s="78" t="s">
+        <v>86</v>
       </c>
       <c r="D4" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>25</v>
@@ -5931,22 +5929,22 @@
         <v>2</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M4" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="61.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="77"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="56" t="s">
         <v>4</v>
       </c>
@@ -5966,27 +5964,27 @@
         <v>2</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="167.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="77"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="57" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F6" s="45">
         <v>4</v>
@@ -6004,27 +6002,27 @@
         <v>51</v>
       </c>
       <c r="K6" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L6" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M6" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="124.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="77">
         <v>2</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="78" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7" s="39" t="s">
         <v>53</v>
@@ -6042,22 +6040,22 @@
         <v>2</v>
       </c>
       <c r="J7" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L7" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" s="55" t="s">
         <v>118</v>
-      </c>
-      <c r="M7" s="55" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="63.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="77"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
       <c r="D8" s="56" t="s">
         <v>4</v>
       </c>
@@ -6077,22 +6075,22 @@
         <v>2</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K8" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L8" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M8" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="180" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="77"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
       <c r="D9" s="57" t="s">
         <v>46</v>
       </c>
@@ -6112,30 +6110,30 @@
         <v>2</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L9" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="96" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="77">
         <v>3</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="78" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>26</v>
@@ -6156,19 +6154,19 @@
         <v>62</v>
       </c>
       <c r="K10" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L10" s="41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M10" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="36.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="77"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
       <c r="D11" s="56" t="s">
         <v>4</v>
       </c>
@@ -6188,22 +6186,22 @@
         <v>2</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K11" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L11" s="48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M11" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="223.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="77"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="57" t="s">
         <v>46</v>
       </c>
@@ -6223,30 +6221,30 @@
         <v>2</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L12" s="49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M12" s="49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="77">
         <v>4</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="78" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>27</v>
@@ -6267,19 +6265,19 @@
         <v>62</v>
       </c>
       <c r="K13" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M13" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="123.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="77"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="56" t="s">
         <v>4</v>
       </c>
@@ -6299,22 +6297,22 @@
         <v>2</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K14" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="96.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="77"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="57" t="s">
         <v>46</v>
       </c>
@@ -6334,30 +6332,30 @@
         <v>2</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K15" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L15" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M15" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="77">
         <v>5</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="78" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>28</v>
@@ -6378,19 +6376,19 @@
         <v>62</v>
       </c>
       <c r="K16" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L16" s="39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M16" s="47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="74.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="77"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="56" t="s">
         <v>4</v>
       </c>
@@ -6410,22 +6408,22 @@
         <v>2</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K17" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L17" s="48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M17" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="169.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="77"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="57" t="s">
         <v>46</v>
       </c>
@@ -6445,30 +6443,30 @@
         <v>2</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L18" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M18" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="77">
         <v>6</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="78" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="41" t="s">
         <v>29</v>
@@ -6486,22 +6484,22 @@
         <v>2</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K19" s="39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L19" s="39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M19" s="47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="64.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="77"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="56" t="s">
         <v>4</v>
       </c>
@@ -6521,22 +6519,22 @@
         <v>2</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K20" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L20" s="48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M20" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="159" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="77"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="57" t="s">
         <v>46</v>
       </c>
@@ -6556,30 +6554,30 @@
         <v>2</v>
       </c>
       <c r="J21" s="50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K21" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L21" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M21" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="77">
         <v>7</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="78" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>30</v>
@@ -6597,22 +6595,22 @@
         <v>2</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K22" s="39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L22" s="39" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="77"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="76"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="56" t="s">
         <v>4</v>
       </c>
@@ -6632,22 +6630,22 @@
         <v>2</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L23" s="43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M23" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="133.80000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="77"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="57" t="s">
         <v>46</v>
       </c>
@@ -6667,30 +6665,30 @@
         <v>2</v>
       </c>
       <c r="J24" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K24" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L24" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M24" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="86.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="77">
         <v>8</v>
       </c>
-      <c r="B25" s="76" t="s">
+      <c r="B25" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="78" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="41" t="s">
         <v>31</v>
@@ -6708,22 +6706,22 @@
         <v>2</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K25" s="39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L25" s="39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M25" s="47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="77"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="56" t="s">
         <v>4</v>
       </c>
@@ -6743,22 +6741,22 @@
         <v>2</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K26" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L26" s="48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M26" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="122.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="77"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="57" t="s">
         <v>46</v>
       </c>
@@ -6778,30 +6776,30 @@
         <v>2</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K27" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L27" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M27" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="77">
         <v>9</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="78" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E28" s="39" t="s">
         <v>32</v>
@@ -6819,22 +6817,22 @@
         <v>1</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K28" s="39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L28" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M28" s="47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="77"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="56" t="s">
         <v>4</v>
       </c>
@@ -6857,19 +6855,19 @@
         <v>63</v>
       </c>
       <c r="K29" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L29" s="48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M29" s="48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="161.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="77"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="57" t="s">
         <v>46</v>
       </c>
@@ -6889,30 +6887,30 @@
         <v>2</v>
       </c>
       <c r="J30" s="50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L30" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M30" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="121.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="77">
         <v>10</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>33</v>
@@ -6930,22 +6928,22 @@
         <v>2</v>
       </c>
       <c r="J31" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K31" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L31" s="39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M31" s="47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="77"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="56" t="s">
         <v>4</v>
       </c>
@@ -6965,22 +6963,22 @@
         <v>2</v>
       </c>
       <c r="J32" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K32" s="43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L32" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M32" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="77"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="57" t="s">
         <v>46</v>
       </c>
@@ -7003,13 +7001,13 @@
         <v>64</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L33" s="51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M33" s="51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -7017,15 +7015,11 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="A4:A6"/>
@@ -7042,11 +7036,15 @@
     <mergeCell ref="C28:C30"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -7081,7 +7079,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7089,24 +7087,24 @@
         <v>0</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>113</v>
-      </c>
       <c r="F3" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="16">
         <f>AVERAGE('AI response evaluation '!F4,'AI response evaluation '!F7,'AI response evaluation '!F10,'AI response evaluation '!F13,'AI response evaluation '!F17,'AI response evaluation '!F19,'AI response evaluation '!F22,'AI response evaluation '!F25,'AI response evaluation '!F28,'AI response evaluation '!F31)</f>
@@ -7125,7 +7123,7 @@
         <v>1.9</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -7149,7 +7147,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7173,36 +7171,36 @@
         <v>1.9</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
+      <c r="A8" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
       <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="4">
         <f>COUNTIFS('AI response evaluation '!D4:D33, "ChatGPT-5", 'AI response evaluation '!M4:M33, "No error")</f>
@@ -7274,7 +7272,7 @@
   <sheetData>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
@@ -7282,7 +7280,7 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
@@ -7290,7 +7288,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -7298,27 +7296,27 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
